--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -14997,10 +14997,10 @@
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-8880</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
-      <Description>VMX3MACP777Z-432858100-6680</Description>
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-8880</Url>
+      <Description>VMX3MACP777Z-432858100-8880</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>

--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -11711,8 +11711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33697\ICF\Analysis - Shared Resources\Code\DHS-Indicators-Stata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/Shared Resources/Code/DHS-Indicators-Stata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="114_{BA56B5EA-75AF-4E8A-BCB2-6B6346BBE5CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B4D877E-4772-44E9-9B2A-04D72CB226AD}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="114_{BA56B5EA-75AF-4E8A-BCB2-6B6346BBE5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EED370CC-D532-4FC1-B279-7F3438832CDD}"/>
   <bookViews>
-    <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28721" yWindow="0" windowWidth="18851" windowHeight="11808" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="1849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="1857">
   <si>
     <t>Chapter</t>
   </si>
@@ -5355,15 +5355,6 @@
     <t>ph_wealth_quint</t>
   </si>
   <si>
-    <t>"Wealth quintile"</t>
-  </si>
-  <si>
-    <t>ph_wealth_gini</t>
-  </si>
-  <si>
-    <t>"Gini coefficient of wealth index"</t>
-  </si>
-  <si>
     <t>PH_HNDWSH.do</t>
   </si>
   <si>
@@ -5376,51 +5367,12 @@
     <t>"Either fixed or mobile place for handwashing"</t>
   </si>
   <si>
-    <t>ph_hndwsh_plac_both</t>
-  </si>
-  <si>
     <t>ph_hndwsh_place_mob</t>
   </si>
   <si>
     <t>ph_hndwsh_place_fxd</t>
   </si>
   <si>
-    <t>ph_hndwsh_wtronly</t>
-  </si>
-  <si>
-    <t>ph_hndwsh_soap_nowtr</t>
-  </si>
-  <si>
-    <t>ph_hndwsh_soap_wtr</t>
-  </si>
-  <si>
-    <t>ph_hndwsh_clnsagnt_wtr</t>
-  </si>
-  <si>
-    <t>ph_hndwsh_clnsagnt_nowtr</t>
-  </si>
-  <si>
-    <t>ph_hndwsh_none</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with soap and water"</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with cleansing agent other than soap and water"</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with water only"</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with soap and no water"</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with cleansing agent otherthan soap and no water"</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with no water, no soap, and no other cleansing agent"</t>
-  </si>
-  <si>
     <t>PH_POP.do</t>
   </si>
   <si>
@@ -5490,9 +5442,6 @@
     <t>"Orphans and/or foster children under age 18"</t>
   </si>
   <si>
-    <t>HR and PR</t>
-  </si>
-  <si>
     <t>"Child under 18 not living with a biological parent"</t>
   </si>
   <si>
@@ -5511,21 +5460,12 @@
     <t>ph_birthreg</t>
   </si>
   <si>
-    <t>PH_EDU.do</t>
-  </si>
-  <si>
     <t>ph_highest_edu</t>
   </si>
   <si>
-    <t>ph_median_eduyrs</t>
-  </si>
-  <si>
     <t>"Highest level of schooling attended or completed among those age 6 or over"</t>
   </si>
   <si>
-    <t>"Median years of education among those age 6 or over"</t>
-  </si>
-  <si>
     <t>"Primary school net attendance ratio (NAR)"</t>
   </si>
   <si>
@@ -5593,6 +5533,90 @@
   </si>
   <si>
     <t>"Living arrangement and parents survival status for child under 18"</t>
+  </si>
+  <si>
+    <t>ph_wtr_basic</t>
+  </si>
+  <si>
+    <t>ph_wtr_limited</t>
+  </si>
+  <si>
+    <t>"Basic water service"</t>
+  </si>
+  <si>
+    <t>"Limited water service"</t>
+  </si>
+  <si>
+    <t>ph_sanit_basic</t>
+  </si>
+  <si>
+    <t>ph_sanit_limited</t>
+  </si>
+  <si>
+    <t>"Basic sanitation facility"</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_basic</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_limited</t>
+  </si>
+  <si>
+    <t>"Basic handwashing facility"</t>
+  </si>
+  <si>
+    <t>"Limited handwashing facility"</t>
+  </si>
+  <si>
+    <t>"Limited sanitation facility"</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_place_any</t>
+  </si>
+  <si>
+    <t>"Place observed for handwashing with water"</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_soap</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_clnsagnt</t>
+  </si>
+  <si>
+    <t>"Place observed for handwashing with soap"</t>
+  </si>
+  <si>
+    <t>"Place observed for handwashing with cleansing agent other than soap"</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_water</t>
+  </si>
+  <si>
+    <t>PH_SCHOL.do</t>
+  </si>
+  <si>
+    <t>ph_median_eduyrs_wm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Median years of education among those age 6 or over - Females"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ph_median_eduyrs_mn </t>
+  </si>
+  <si>
+    <t>Median years of education among those age 6 or over - Males</t>
+  </si>
+  <si>
+    <t>this is a scalar</t>
+  </si>
+  <si>
+    <t>Produces table for Gini coeffients</t>
+  </si>
+  <si>
+    <t>PH_GINI.do</t>
+  </si>
+  <si>
+    <t>Wealth quintile - dejure population</t>
   </si>
 </sst>
 </file>
@@ -5682,7 +5706,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5698,6 +5722,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5723,7 +5753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5867,6 +5897,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6174,10 +6217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -6218,12 +6261,12 @@
       <c r="B2" s="4" t="s">
         <v>1691</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="59" t="s">
         <v>1692</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -6277,42 +6320,42 @@
       </c>
       <c r="F6" s="50"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E7" s="52" t="s">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E7" s="55" t="s">
         <v>1694</v>
       </c>
-      <c r="F7" s="50"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E8" s="52" t="s">
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E8" s="55" t="s">
         <v>1694</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="50"/>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>1694</v>
@@ -6323,10 +6366,10 @@
       <c r="A10" s="50"/>
       <c r="B10" s="50"/>
       <c r="C10" s="50" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>1694</v>
@@ -6337,10 +6380,10 @@
       <c r="A11" s="50"/>
       <c r="B11" s="50"/>
       <c r="C11" s="50" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>1694</v>
@@ -6351,10 +6394,10 @@
       <c r="A12" s="50"/>
       <c r="B12" s="50"/>
       <c r="C12" s="50" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>1694</v>
@@ -6365,10 +6408,10 @@
       <c r="A13" s="50"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>1694</v>
@@ -6379,24 +6422,24 @@
       <c r="A14" s="50"/>
       <c r="B14" s="50"/>
       <c r="C14" s="50" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="E14" s="52" t="s">
         <v>1694</v>
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="50"/>
       <c r="C15" s="50" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>1694</v>
@@ -6406,23 +6449,27 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="C16" s="50" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>1694</v>
+      </c>
       <c r="F16" s="50"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
-      <c r="B17" s="50" t="s">
-        <v>1719</v>
-      </c>
+      <c r="B17" s="50"/>
       <c r="C17" s="50" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E17" s="50" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E17" s="52" t="s">
         <v>1694</v>
       </c>
       <c r="F17" s="50"/>
@@ -6430,27 +6477,23 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
-      <c r="C18" s="50" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>1723</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>1694</v>
-      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="50"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
+      <c r="B19" s="50" t="s">
+        <v>1719</v>
+      </c>
       <c r="C19" s="50" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E19" s="52" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>1694</v>
       </c>
       <c r="F19" s="50"/>
@@ -6458,49 +6501,53 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="50"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
+      <c r="C20" s="50" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>1694</v>
+      </c>
       <c r="F20" s="50"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E21" s="50" t="s">
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E21" s="55" t="s">
         <v>1694</v>
       </c>
-      <c r="F21" s="50"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>1730</v>
-      </c>
-      <c r="E22" s="52" t="s">
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E22" s="55" t="s">
         <v>1694</v>
       </c>
-      <c r="F22" s="50"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
       <c r="C23" s="50" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>1694</v>
@@ -6510,27 +6557,23 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="50"/>
       <c r="B24" s="50"/>
-      <c r="C24" s="50" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>1694</v>
-      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="B25" s="50" t="s">
+        <v>1726</v>
+      </c>
       <c r="C25" s="50" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E25" s="52" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E25" s="50" t="s">
         <v>1694</v>
       </c>
       <c r="F25" s="50"/>
@@ -6539,10 +6582,10 @@
       <c r="A26" s="50"/>
       <c r="B26" s="50"/>
       <c r="C26" s="50" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="E26" s="52" t="s">
         <v>1694</v>
@@ -6553,10 +6596,10 @@
       <c r="A27" s="50"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="E27" s="52" t="s">
         <v>1694</v>
@@ -6564,77 +6607,77 @@
       <c r="F27" s="50"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>1756</v>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>1736</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>871</v>
-      </c>
-      <c r="F29" s="52"/>
+        <v>1694</v>
+      </c>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>1757</v>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>1738</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>871</v>
-      </c>
-      <c r="F30" s="52"/>
+        <v>1694</v>
+      </c>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>1759</v>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>1740</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>871</v>
-      </c>
-      <c r="F31" s="52"/>
+        <v>1694</v>
+      </c>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="52"/>
       <c r="B32" s="52"/>
-      <c r="C32" s="52" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>1758</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>871</v>
-      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="52"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="E33" s="52" t="s">
         <v>871</v>
@@ -6642,27 +6685,27 @@
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50" t="s">
-        <v>1748</v>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52" t="s">
+        <v>1744</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="E34" s="52" t="s">
         <v>871</v>
       </c>
-      <c r="F34" s="50"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="52"/>
       <c r="B35" s="52"/>
       <c r="C35" s="52" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="E35" s="52" t="s">
         <v>871</v>
@@ -6673,10 +6716,10 @@
       <c r="A36" s="52"/>
       <c r="B36" s="52"/>
       <c r="C36" s="52" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>1842</v>
+        <v>1758</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>871</v>
@@ -6687,10 +6730,10 @@
       <c r="A37" s="52"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>871</v>
@@ -6698,27 +6741,27 @@
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52" t="s">
-        <v>1752</v>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50" t="s">
+        <v>1748</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="E38" s="52" t="s">
         <v>871</v>
       </c>
-      <c r="F38" s="52"/>
+      <c r="F38" s="50"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="52"/>
       <c r="B39" s="52"/>
       <c r="C39" s="52" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="E39" s="52" t="s">
         <v>871</v>
@@ -6729,10 +6772,10 @@
       <c r="A40" s="52"/>
       <c r="B40" s="52"/>
       <c r="C40" s="52" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>1766</v>
+        <v>1822</v>
       </c>
       <c r="E40" s="52" t="s">
         <v>871</v>
@@ -6743,10 +6786,10 @@
       <c r="A41" s="52"/>
       <c r="B41" s="52"/>
       <c r="C41" s="52" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="E41" s="52" t="s">
         <v>871</v>
@@ -6756,317 +6799,338 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="52"/>
       <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
+      <c r="C42" s="52" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>871</v>
+      </c>
       <c r="F42" s="52"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F43" s="50"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E45" s="50" t="s">
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E45" s="52" t="s">
         <v>871</v>
       </c>
-      <c r="F45" s="50"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>1774</v>
-      </c>
-      <c r="E46" s="52" t="s">
-        <v>871</v>
-      </c>
-      <c r="F46" s="50"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="50"/>
       <c r="B47" s="50"/>
       <c r="C47" s="50" t="s">
-        <v>1776</v>
+        <v>1741</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E47" s="52" t="s">
-        <v>871</v>
+        <v>1742</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>1694</v>
       </c>
       <c r="F47" s="50"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="50"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="50" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>1785</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>871</v>
-      </c>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
       <c r="F48" s="50"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
+      <c r="B49" s="50" t="s">
+        <v>1769</v>
+      </c>
       <c r="C49" s="50" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>1786</v>
-      </c>
-      <c r="E49" s="52" t="s">
-        <v>871</v>
+        <v>1774</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>1694</v>
       </c>
       <c r="F49" s="50"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C50" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
+    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F50" s="50"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="36" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F51" s="50"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="36" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F52" s="50"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" s="57" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C54" s="57" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="36" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="36" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>1780</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>1788</v>
-      </c>
-      <c r="E51" s="52" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="1" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1796</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C56" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C58" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1799</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E62" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C60" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C61" s="1" t="s">
-        <v>1804</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52" t="s">
+      <c r="E64" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52" t="s">
         <v>1768</v>
       </c>
-      <c r="D63" s="52" t="s">
-        <v>1769</v>
-      </c>
-      <c r="E63" s="52" t="s">
+      <c r="D66" s="58" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E66" s="52" t="s">
         <v>851</v>
       </c>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>1771</v>
-      </c>
-      <c r="E64" s="52" t="s">
-        <v>851</v>
-      </c>
-      <c r="F64" s="52"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C66" s="1" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C67" s="1" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>1814</v>
-      </c>
+      <c r="F66" s="52"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1814</v>
+        <v>851</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
-        <v>1808</v>
+        <v>1849</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1813</v>
+        <v>1850</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1814</v>
+        <v>851</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>1853</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C71" s="1" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>851</v>
-      </c>
+      <c r="A71" s="56"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
-        <v>1844</v>
+        <v>1823</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1815</v>
+        <v>1828</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>851</v>
@@ -7074,158 +7138,221 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
-        <v>1845</v>
+        <v>1824</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1846</v>
+        <v>1798</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>851</v>
       </c>
     </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C75" s="1" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>1817</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="53"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+    </row>
+    <row r="76" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
-        <v>1818</v>
+        <v>1784</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1847</v>
+        <v>1785</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
-        <v>1820</v>
+        <v>1786</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1819</v>
+        <v>1787</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="E79" s="1" t="s">
+    <row r="78" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C78" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
-        <v>1823</v>
+        <v>1790</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1825</v>
+        <v>1794</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
-        <v>1828</v>
+        <v>1793</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1826</v>
+        <v>1796</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
-        <v>1829</v>
+        <v>1792</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1827</v>
+        <v>1797</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C84" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>1836</v>
-      </c>
-      <c r="E84" s="1" t="s">
+    <row r="85" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A85" s="52"/>
+      <c r="B85" s="52" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C85" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C86" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>1838</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="52"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>1848</v>
+      </c>
       <c r="C87" s="1" t="s">
-        <v>1833</v>
+        <v>1808</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1840</v>
+        <v>1806</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
-        <v>1834</v>
+        <v>1809</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1839</v>
+        <v>1807</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
-        <v>1835</v>
+        <v>1810</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1841</v>
+        <v>1816</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C90" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C94" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>851</v>
       </c>
     </row>
@@ -7283,12 +7410,12 @@
       <c r="B2" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>809</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -8783,12 +8910,12 @@
       <c r="B2" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>876</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -8986,7 +9113,7 @@
       <c r="E16" s="17" t="s">
         <v>910</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="64" t="s">
         <v>911</v>
       </c>
     </row>
@@ -9000,7 +9127,7 @@
         <v>913</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="59"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
@@ -9076,7 +9203,7 @@
       <c r="E23" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="65" t="s">
         <v>925</v>
       </c>
     </row>
@@ -9092,7 +9219,7 @@
       <c r="E24" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="F24" s="60"/>
+      <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
@@ -9106,7 +9233,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="59" t="s">
         <v>929</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -9124,7 +9251,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="54"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="1" t="s">
         <v>933</v>
       </c>
@@ -9140,7 +9267,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="54"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="1" t="s">
         <v>935</v>
       </c>
@@ -9156,7 +9283,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="54"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="17" t="s">
         <v>937</v>
       </c>
@@ -9170,7 +9297,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="54"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="17" t="s">
         <v>939</v>
       </c>
@@ -9184,7 +9311,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="54"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="17" t="s">
         <v>941</v>
       </c>
@@ -9796,12 +9923,12 @@
       <c r="B2" s="21" t="s">
         <v>1004</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>1005</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F3" s="22"/>
@@ -10042,7 +10169,7 @@
       <c r="E26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="61" t="s">
+      <c r="F26" s="66" t="s">
         <v>1025</v>
       </c>
       <c r="G26" s="34"/>
@@ -10057,7 +10184,7 @@
       <c r="E27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="24" t="s">
@@ -10069,7 +10196,7 @@
       <c r="E28" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="61"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="34"/>
     </row>
     <row r="29" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -10082,7 +10209,7 @@
       <c r="E29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="61"/>
+      <c r="F29" s="66"/>
     </row>
     <row r="30" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="24" t="s">
@@ -10583,12 +10710,12 @@
       <c r="B2" s="21" t="s">
         <v>1064</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>1094</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -10631,7 +10758,7 @@
       <c r="E7" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="66" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -10645,7 +10772,7 @@
       <c r="E8" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="66"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="24" t="s">
@@ -10657,7 +10784,7 @@
       <c r="E9" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" s="42"/>
@@ -10903,12 +11030,12 @@
       <c r="B2" s="21" t="s">
         <v>1093</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>1095</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -11345,12 +11472,12 @@
       <c r="B2" s="26" t="s">
         <v>1210</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>1209</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -12271,12 +12398,12 @@
       <c r="B2" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="59" t="s">
         <v>1112</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -12825,12 +12952,12 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -13215,12 +13342,12 @@
       <c r="B2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -14029,12 +14156,12 @@
       <c r="B2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -14228,12 +14355,12 @@
       <c r="B2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -14603,7 +14730,7 @@
       <c r="E29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="62" t="s">
         <v>199</v>
       </c>
     </row>
@@ -14619,7 +14746,7 @@
       <c r="E30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="57"/>
+      <c r="F30" s="62"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
@@ -14633,7 +14760,7 @@
       <c r="E31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="62"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
@@ -14647,7 +14774,7 @@
       <c r="E32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="57"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -14661,7 +14788,7 @@
       <c r="E33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
@@ -14675,7 +14802,7 @@
       <c r="E34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
@@ -14689,7 +14816,7 @@
       <c r="E35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="62"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
@@ -14703,7 +14830,7 @@
       <c r="E36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="57"/>
+      <c r="F36" s="62"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
@@ -14717,7 +14844,7 @@
       <c r="E37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="57"/>
+      <c r="F37" s="62"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
@@ -14731,7 +14858,7 @@
       <c r="E38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="57"/>
+      <c r="F38" s="62"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
@@ -14745,7 +14872,7 @@
       <c r="E39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="57"/>
+      <c r="F39" s="62"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
@@ -14759,7 +14886,7 @@
       <c r="E40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="57"/>
+      <c r="F40" s="62"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
@@ -14773,7 +14900,7 @@
       <c r="E41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="57"/>
+      <c r="F41" s="62"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
@@ -14787,7 +14914,7 @@
       <c r="E42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="57"/>
+      <c r="F42" s="62"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
@@ -14801,7 +14928,7 @@
       <c r="E43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="57"/>
+      <c r="F43" s="62"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
@@ -14815,7 +14942,7 @@
       <c r="E44" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="57"/>
+      <c r="F44" s="62"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
@@ -14829,7 +14956,7 @@
       <c r="E45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="57"/>
+      <c r="F45" s="62"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
@@ -14843,7 +14970,7 @@
       <c r="E46" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="57"/>
+      <c r="F46" s="62"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
@@ -15375,7 +15502,7 @@
       <c r="E86" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="57" t="s">
+      <c r="F86" s="62" t="s">
         <v>305</v>
       </c>
     </row>
@@ -15391,7 +15518,7 @@
       <c r="E87" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="57"/>
+      <c r="F87" s="62"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
@@ -15405,7 +15532,7 @@
       <c r="E88" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="57"/>
+      <c r="F88" s="62"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
@@ -15419,7 +15546,7 @@
       <c r="E89" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="57"/>
+      <c r="F89" s="62"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
@@ -15433,7 +15560,7 @@
       <c r="E90" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="57"/>
+      <c r="F90" s="62"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
@@ -15447,7 +15574,7 @@
       <c r="E91" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="57"/>
+      <c r="F91" s="62"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
@@ -15461,7 +15588,7 @@
       <c r="E92" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="57"/>
+      <c r="F92" s="62"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
@@ -15475,7 +15602,7 @@
       <c r="E93" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="57"/>
+      <c r="F93" s="62"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
@@ -15489,7 +15616,7 @@
       <c r="E94" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="57"/>
+      <c r="F94" s="62"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
@@ -15503,7 +15630,7 @@
       <c r="E95" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="57"/>
+      <c r="F95" s="62"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
@@ -15517,7 +15644,7 @@
       <c r="E96" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="57"/>
+      <c r="F96" s="62"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
@@ -15531,7 +15658,7 @@
       <c r="E97" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="57"/>
+      <c r="F97" s="62"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
@@ -15545,7 +15672,7 @@
       <c r="E98" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="57"/>
+      <c r="F98" s="62"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
@@ -15559,7 +15686,7 @@
       <c r="E99" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="57"/>
+      <c r="F99" s="62"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
@@ -16234,12 +16361,12 @@
       <c r="B2" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -16254,10 +16381,10 @@
       <c r="B4" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="63" t="s">
         <v>419</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -16996,12 +17123,12 @@
       <c r="B2" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -17639,12 +17766,12 @@
       <c r="B2" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -19245,7 +19372,7 @@
       <c r="E123" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="57" t="s">
+      <c r="F123" s="62" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -19261,7 +19388,7 @@
       <c r="E124" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F124" s="57"/>
+      <c r="F124" s="62"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
@@ -19302,10 +19429,10 @@
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-8880</_dlc_DocId>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-8880</Url>
-      <Description>VMX3MACP777Z-432858100-8880</Description>
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
+      <Description>VMX3MACP777Z-432858100-6680</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
@@ -19642,17 +19769,17 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
+    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33697\ICF\Analysis - Shared Resources\Code\DHS-Indicators-Stata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39585\ICF\Analysis - Shared Resources\Code\DHS-Indicators-SPSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6CF1D6-53ED-4F55-B48A-BB45FBDEA081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F072E5-4CB3-4DC5-B0FB-60B8295BDD1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="1855">
   <si>
     <t>Chapter</t>
   </si>
@@ -5043,15 +5043,6 @@
     <t>HR or PR</t>
   </si>
   <si>
-    <t>"Source of drinking water"</t>
-  </si>
-  <si>
-    <t>"Access to improved water source"</t>
-  </si>
-  <si>
-    <t>"Round trip time to obtain drinking water"</t>
-  </si>
-  <si>
     <t>ph_wtr_source</t>
   </si>
   <si>
@@ -5061,132 +5052,39 @@
     <t>ph_wtr_time</t>
   </si>
   <si>
-    <t>ph_wtr_treat_boil</t>
-  </si>
-  <si>
-    <t>"Treated water by boiling before drinking"</t>
-  </si>
-  <si>
-    <t>ph_wtr_treat_clth</t>
-  </si>
-  <si>
-    <t>ph_wtr_treat_chlr</t>
-  </si>
-  <si>
-    <t>ph_wtr_treat_fltr</t>
-  </si>
-  <si>
-    <t>ph_wtr_treat_solr</t>
-  </si>
-  <si>
-    <t>ph_wtr_treat_stnd</t>
-  </si>
-  <si>
-    <t>ph_wtr_treat_othr</t>
-  </si>
-  <si>
     <t>ph_wtr_no_treat</t>
   </si>
   <si>
-    <t>"Treated water by adding bleach or chlorine before drinking"</t>
-  </si>
-  <si>
-    <t>"Treated water by straining through cloth before drinking"</t>
-  </si>
-  <si>
-    <t>"Treated water by ceramic, sand, or other filter before drinking"</t>
-  </si>
-  <si>
-    <t>"Treated water by solar disinfection before drinking"</t>
-  </si>
-  <si>
-    <t>"Treated water by letting stand and settle before drinking"</t>
-  </si>
-  <si>
-    <t>"Treated water by other means before drinking"</t>
-  </si>
-  <si>
-    <t>"Did not treat water before drinking"</t>
-  </si>
-  <si>
     <t>ph_wtr_avail</t>
   </si>
   <si>
-    <t>"Availability of water among those using piped water or water from tube well or borehole"</t>
-  </si>
-  <si>
-    <t>PH_SANIT.do</t>
-  </si>
-  <si>
-    <t>ph_sanit_type</t>
-  </si>
-  <si>
-    <t>"Type of sanitation facility"</t>
-  </si>
-  <si>
-    <t>ph_sanit_improved</t>
-  </si>
-  <si>
-    <t>"Access to improved sanitation"</t>
-  </si>
-  <si>
-    <t>ph_sanit_location</t>
-  </si>
-  <si>
-    <t>"Location of toilet/latrine facility"</t>
-  </si>
-  <si>
     <t>PH_HOUS.do</t>
   </si>
   <si>
     <t>ph_electric</t>
   </si>
   <si>
-    <t>"Have electricity"</t>
-  </si>
-  <si>
     <t>ph_floor</t>
   </si>
   <si>
-    <t>"Flooring material"</t>
-  </si>
-  <si>
     <t>ph_rooms_sleep</t>
   </si>
   <si>
-    <t>"Rooms for sleeping"</t>
-  </si>
-  <si>
-    <t>"Place for cooking"</t>
-  </si>
-  <si>
     <t>ph_cook_place</t>
   </si>
   <si>
     <t>ph_cook_fuel</t>
   </si>
   <si>
-    <t>"Type fo cooking fuel"</t>
-  </si>
-  <si>
     <t>ph_cook_solid</t>
   </si>
   <si>
-    <t>"Using solid fuel for cooking"</t>
-  </si>
-  <si>
     <t>ph_cook_clean</t>
   </si>
   <si>
-    <t>"Using clean fuel for cooking"</t>
-  </si>
-  <si>
     <t>ph_smoke</t>
   </si>
   <si>
-    <t>"Frequency of smoking at home"</t>
-  </si>
-  <si>
     <t>ph_radio</t>
   </si>
   <si>
@@ -5226,57 +5124,12 @@
     <t>ph_animals</t>
   </si>
   <si>
-    <t>"Owns a radio"</t>
-  </si>
-  <si>
-    <t>"Owns a tv"</t>
-  </si>
-  <si>
-    <t>"Owns a non-mobile telephone"</t>
-  </si>
-  <si>
-    <t>"Owns a mobile phone"</t>
-  </si>
-  <si>
-    <t>"Owns a computer"</t>
-  </si>
-  <si>
-    <t>"Owns a refrigerator"</t>
-  </si>
-  <si>
-    <t>"Owns a bicycle"</t>
-  </si>
-  <si>
-    <t>"Owns a motorcycle/scooter"</t>
-  </si>
-  <si>
-    <t>"Owns a car or truck"</t>
-  </si>
-  <si>
-    <t>"Owns a boat with a motor"</t>
-  </si>
-  <si>
-    <t>"Owns agricultural land"</t>
-  </si>
-  <si>
-    <t>"Owns livestock or farm animals"</t>
-  </si>
-  <si>
     <t>ph_wealth_quint</t>
   </si>
   <si>
     <t>PH_HNDWSH.do</t>
   </si>
   <si>
-    <t>"Fixed place for handwashing"</t>
-  </si>
-  <si>
-    <t>"Mobile place for handwashing"</t>
-  </si>
-  <si>
-    <t>"Either fixed or mobile place for handwashing"</t>
-  </si>
-  <si>
     <t>ph_hndwsh_place_mob</t>
   </si>
   <si>
@@ -5298,36 +5151,15 @@
     <t>ph_pop_adols</t>
   </si>
   <si>
-    <t>"De facto population by five-year age groups"</t>
-  </si>
-  <si>
-    <t>"De facto population by dependency age groups"</t>
-  </si>
-  <si>
-    <t>"De facto population by child and adult populations"</t>
-  </si>
-  <si>
-    <t>"De factor population that are adolesents"</t>
-  </si>
-  <si>
     <t>ph_hhhead_sex</t>
   </si>
   <si>
-    <t>"Sex of household head"</t>
-  </si>
-  <si>
     <t>ph_num_members</t>
   </si>
   <si>
-    <t>"Number of usual household members"</t>
-  </si>
-  <si>
     <t>ph_mean_hhsize</t>
   </si>
   <si>
-    <t>"Mean size of household"</t>
-  </si>
-  <si>
     <t>ph_orph_double</t>
   </si>
   <si>
@@ -5340,48 +5172,18 @@
     <t>ph_foster</t>
   </si>
   <si>
-    <t>"Double orphans under age 18"</t>
-  </si>
-  <si>
-    <t>"Single orphans under age 18"</t>
-  </si>
-  <si>
-    <t>"Foster children under age 18"</t>
-  </si>
-  <si>
-    <t>"Orphans and/or foster children under age 18"</t>
-  </si>
-  <si>
-    <t>"Child under 18 not living with a biological parent"</t>
-  </si>
-  <si>
     <t>ph_birthreg_cert</t>
   </si>
   <si>
-    <t>"Child under 5 with registered birth and birth certificate"</t>
-  </si>
-  <si>
     <t>ph_birthreg_nocert</t>
   </si>
   <si>
-    <t>"Child under 5 with registered birth"</t>
-  </si>
-  <si>
     <t>ph_birthreg</t>
   </si>
   <si>
     <t>ph_highest_edu</t>
   </si>
   <si>
-    <t>"Highest level of schooling attended or completed among those age 6 or over"</t>
-  </si>
-  <si>
-    <t>"Primary school net attendance ratio (NAR)"</t>
-  </si>
-  <si>
-    <t>"Secondary school net attendance ratio (NAR)"</t>
-  </si>
-  <si>
     <t>ph_sch_nar_prim</t>
   </si>
   <si>
@@ -5406,27 +5208,12 @@
     <t>ph_gpi_gar_sec</t>
   </si>
   <si>
-    <t>"Primary school gross attendance ratio (GAR)"</t>
-  </si>
-  <si>
-    <t>"Secondary school gross attendance ratio (GAR)"</t>
-  </si>
-  <si>
-    <t>"Gender parity index for NAR primary"</t>
-  </si>
-  <si>
     <t>"Gender parity index for GAR primary"</t>
   </si>
   <si>
-    <t>"Gender parity index for NAR secondary"</t>
-  </si>
-  <si>
     <t>"Gender parity index for GAR secondary"</t>
   </si>
   <si>
-    <t>"Owns a animal drawn cart"</t>
-  </si>
-  <si>
     <t>ph_chld_liv_arrang</t>
   </si>
   <si>
@@ -5436,69 +5223,24 @@
     <t>ph_chld_orph</t>
   </si>
   <si>
-    <t>"Child under 18 with one or both parents dead"</t>
-  </si>
-  <si>
-    <t>"Child under 5 with registered birth and no birth certificate"</t>
-  </si>
-  <si>
-    <t>"Living arrangement and parents survival status for child under 18"</t>
-  </si>
-  <si>
     <t>ph_wtr_basic</t>
   </si>
   <si>
-    <t>ph_wtr_limited</t>
-  </si>
-  <si>
-    <t>"Basic water service"</t>
-  </si>
-  <si>
-    <t>"Limited water service"</t>
-  </si>
-  <si>
-    <t>ph_sanit_basic</t>
-  </si>
-  <si>
-    <t>ph_sanit_limited</t>
-  </si>
-  <si>
-    <t>"Basic sanitation facility"</t>
-  </si>
-  <si>
     <t>ph_hndwsh_basic</t>
   </si>
   <si>
     <t>ph_hndwsh_limited</t>
   </si>
   <si>
-    <t>"Basic handwashing facility"</t>
-  </si>
-  <si>
-    <t>"Limited handwashing facility"</t>
-  </si>
-  <si>
-    <t>"Limited sanitation facility"</t>
-  </si>
-  <si>
     <t>ph_hndwsh_place_any</t>
   </si>
   <si>
-    <t>"Place observed for handwashing with water"</t>
-  </si>
-  <si>
     <t>ph_hndwsh_soap</t>
   </si>
   <si>
     <t>ph_hndwsh_clnsagnt</t>
   </si>
   <si>
-    <t>"Place observed for handwashing with soap"</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with cleansing agent other than soap"</t>
-  </si>
-  <si>
     <t>ph_hndwsh_water</t>
   </si>
   <si>
@@ -5508,9 +5250,6 @@
     <t>ph_median_eduyrs_wm</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Median years of education among those age 6 or over - Females"</t>
-  </si>
-  <si>
     <t xml:space="preserve">ph_median_eduyrs_mn </t>
   </si>
   <si>
@@ -5617,6 +5356,261 @@
   </si>
   <si>
     <t xml:space="preserve">Main file for the domestic violence chapter. The main file will call the do files listed below and the DV_tables.do file not listed here. The tables do file will produce excel tables of the indicators. Some of the do files will also produce tables as indicated in the notes below. Please check for country specific variations. </t>
+  </si>
+  <si>
+    <t>Source of drinking water</t>
+  </si>
+  <si>
+    <t>Access to improved water source</t>
+  </si>
+  <si>
+    <t>Round trip time to obtain drinking water</t>
+  </si>
+  <si>
+    <t>Basic water service</t>
+  </si>
+  <si>
+    <t>ph_wtr_trt_boil</t>
+  </si>
+  <si>
+    <t>Treated water by boiling before drinking</t>
+  </si>
+  <si>
+    <t>ph_wtr_trt_chlor</t>
+  </si>
+  <si>
+    <t>Treated water by adding bleach or chlorine before drinking</t>
+  </si>
+  <si>
+    <t>ph_wtr_trt_cloth</t>
+  </si>
+  <si>
+    <t>Treated water by straining through cloth before drinking</t>
+  </si>
+  <si>
+    <t>ph_wtr_trt_filt</t>
+  </si>
+  <si>
+    <t>Treated water by ceramic, sand, or other filter before drinking</t>
+  </si>
+  <si>
+    <t>ph_wtr_trt_solar</t>
+  </si>
+  <si>
+    <t>Treated water by solar disinfection before drinking</t>
+  </si>
+  <si>
+    <t>ph_wtr_trt_stand</t>
+  </si>
+  <si>
+    <t>Treated water by letting stand and settle before drinking</t>
+  </si>
+  <si>
+    <t>ph_wtr_trt_other</t>
+  </si>
+  <si>
+    <t>Treated water by other means before drinking</t>
+  </si>
+  <si>
+    <t>Did not treat water before drinking</t>
+  </si>
+  <si>
+    <t>Availability of water among those using piped water or water from tube well or borehole</t>
+  </si>
+  <si>
+    <t>PH_SANI.do</t>
+  </si>
+  <si>
+    <t>ph_sani_type</t>
+  </si>
+  <si>
+    <t>Type of sanitation facility</t>
+  </si>
+  <si>
+    <t>ph_sani_improve</t>
+  </si>
+  <si>
+    <t>Access to improved sanitation</t>
+  </si>
+  <si>
+    <t>ph_sani_basic</t>
+  </si>
+  <si>
+    <t>Basic sanitation facility</t>
+  </si>
+  <si>
+    <t>ph_sani_location</t>
+  </si>
+  <si>
+    <t>Location of toilet/latrine facility</t>
+  </si>
+  <si>
+    <t>Have electricity</t>
+  </si>
+  <si>
+    <t>Flooring material</t>
+  </si>
+  <si>
+    <t>Rooms for sleeping</t>
+  </si>
+  <si>
+    <t>Place for cooking</t>
+  </si>
+  <si>
+    <t>Type fo cooking fuel</t>
+  </si>
+  <si>
+    <t>Using solid fuel for cooking</t>
+  </si>
+  <si>
+    <t>Using clean fuel for cooking</t>
+  </si>
+  <si>
+    <t>Owns a radio</t>
+  </si>
+  <si>
+    <t>Owns a tv</t>
+  </si>
+  <si>
+    <t>Owns a mobile phone</t>
+  </si>
+  <si>
+    <t>Owns a non-mobile telephone</t>
+  </si>
+  <si>
+    <t>Owns a computer</t>
+  </si>
+  <si>
+    <t>Owns a refrigerator</t>
+  </si>
+  <si>
+    <t>Owns a bicycle</t>
+  </si>
+  <si>
+    <t>Owns a animal drawn cart</t>
+  </si>
+  <si>
+    <t>Owns a motorcycle/scooter</t>
+  </si>
+  <si>
+    <t>Owns a car or truck</t>
+  </si>
+  <si>
+    <t>Owns a boat with a motor</t>
+  </si>
+  <si>
+    <t>Owns agricultural land</t>
+  </si>
+  <si>
+    <t>Owns livestock or farm animals</t>
+  </si>
+  <si>
+    <t>Frequency of smoking at home</t>
+  </si>
+  <si>
+    <t>Fixed place for handwashing</t>
+  </si>
+  <si>
+    <t>Mobile place for handwashing</t>
+  </si>
+  <si>
+    <t>Either fixed or mobile place for handwashing</t>
+  </si>
+  <si>
+    <t>Place observed for handwashing with water</t>
+  </si>
+  <si>
+    <t>Place observed for handwashing with soap</t>
+  </si>
+  <si>
+    <t>Place observed for handwashing with cleansing agent other than soap</t>
+  </si>
+  <si>
+    <t>Basic handwashing facility</t>
+  </si>
+  <si>
+    <t>Limited handwashing facility</t>
+  </si>
+  <si>
+    <t>De facto population by five-year age groups</t>
+  </si>
+  <si>
+    <t>De facto population by dependency age groups</t>
+  </si>
+  <si>
+    <t>De facto population by child and adult populations</t>
+  </si>
+  <si>
+    <t>De factor population that are adolesents</t>
+  </si>
+  <si>
+    <t>Child under 5 with registered birth and birth certificate</t>
+  </si>
+  <si>
+    <t>Child under 5 with registered birth and no birth certificate</t>
+  </si>
+  <si>
+    <t>Child under 5 with registered birth</t>
+  </si>
+  <si>
+    <t>Highest level of schooling attended or completed among those age 6 or over</t>
+  </si>
+  <si>
+    <t>Median years of education among those age 6 or over - Females</t>
+  </si>
+  <si>
+    <t>Living arrangement and parents survival status for child under 18</t>
+  </si>
+  <si>
+    <t>Child under 18 not living with a biological parent</t>
+  </si>
+  <si>
+    <t>Child under 18 with one or both parents dead</t>
+  </si>
+  <si>
+    <t>Sex of household head</t>
+  </si>
+  <si>
+    <t>Number of usual household members</t>
+  </si>
+  <si>
+    <t>Mean size of household</t>
+  </si>
+  <si>
+    <t>Double orphans under age 18</t>
+  </si>
+  <si>
+    <t>Single orphans under age 18</t>
+  </si>
+  <si>
+    <t>Foster children under age 18</t>
+  </si>
+  <si>
+    <t>Orphans and/or foster children under age 18</t>
+  </si>
+  <si>
+    <t>Primary school net attendance ratio (NAR)</t>
+  </si>
+  <si>
+    <t>Secondary school net attendance ratio (NAR)</t>
+  </si>
+  <si>
+    <t>Primary school gross attendance ratio (GAR)</t>
+  </si>
+  <si>
+    <t>Secondary school gross attendance ratio (GAR)</t>
+  </si>
+  <si>
+    <t>Gender parity index for NAR primary</t>
+  </si>
+  <si>
+    <t>Gender parity index for NAR secondary</t>
+  </si>
+  <si>
+    <t>Gender parity index for GAR primary</t>
+  </si>
+  <si>
+    <t>Gender parity index for GAR secondary</t>
   </si>
 </sst>
 </file>
@@ -5706,7 +5700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5722,12 +5716,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5753,7 +5741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5888,29 +5876,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6219,8 +6189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6254,745 +6224,750 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1662</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+        <v>1740</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51" t="s">
         <v>1663</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F5" s="51"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="36" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="36" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="36" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="36" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="36" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="36" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="36" t="s">
         <v>1668</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>1665</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="D15" s="36" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E15" s="36" t="s">
         <v>1664</v>
       </c>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50" t="s">
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="36" t="s">
         <v>1669</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E5" s="52" t="s">
+      <c r="D16" s="36" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E16" s="36" t="s">
         <v>1664</v>
       </c>
-      <c r="F5" s="50"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50" t="s">
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F18" s="51"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="36" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="36" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F20" s="51"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="36" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F21" s="51"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="51"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51" t="s">
         <v>1670</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E6" s="52" t="s">
+      <c r="C23" s="51" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E23" s="51" t="s">
         <v>1664</v>
       </c>
-      <c r="F6" s="50"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D7" s="55" t="s">
+      <c r="F23" s="51"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F24" s="51"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D25" s="51" t="s">
         <v>1801</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E25" s="51" t="s">
         <v>1664</v>
       </c>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D8" s="55" t="s">
+      <c r="F25" s="51"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D26" s="51" t="s">
         <v>1802</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E26" s="51" t="s">
         <v>1664</v>
       </c>
-      <c r="F8" s="54"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>1672</v>
-      </c>
-      <c r="E9" s="52" t="s">
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E27" s="51" t="s">
         <v>1664</v>
       </c>
-      <c r="F9" s="50"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="F27" s="51"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F28" s="51"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F29" s="51"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51" t="s">
         <v>1680</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="D32" s="51" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F33" s="51"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F34" s="51"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F35" s="51"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F36" s="51"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F39" s="51"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F40" s="51"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F41" s="51"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F42" s="51"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="F43" s="51"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E45" s="51" t="s">
         <v>1664</v>
       </c>
-      <c r="F10" s="50"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E11" s="52" t="s">
+      <c r="F45" s="51"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="51"/>
+      <c r="B47" s="51" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E47" s="51" t="s">
         <v>1664</v>
       </c>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>1682</v>
-      </c>
-      <c r="E12" s="52" t="s">
+      <c r="F47" s="51"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E48" s="51" t="s">
         <v>1664</v>
       </c>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F13" s="50"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F14" s="50"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F15" s="50"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F16" s="50"/>
-    </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F17" s="50"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>1691</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F19" s="50"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F20" s="50"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>1805</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F21" s="54"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
-        <v>1804</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F22" s="54"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>1695</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F23" s="50"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F25" s="50"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>1700</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F26" s="50"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F27" s="50"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>1703</v>
-      </c>
-      <c r="E28" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F28" s="50"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F29" s="50"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F30" s="50"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F31" s="50"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52" t="s">
-        <v>1713</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E33" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>1727</v>
-      </c>
-      <c r="E34" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>1729</v>
-      </c>
-      <c r="E35" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F35" s="52"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D36" s="52" t="s">
+      <c r="F48" s="51"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51" t="s">
         <v>1728</v>
       </c>
-      <c r="E36" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F36" s="52"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>1730</v>
-      </c>
-      <c r="E37" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F38" s="50"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F39" s="52"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>1792</v>
-      </c>
-      <c r="E40" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F40" s="52"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F41" s="52"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F42" s="52"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E43" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F43" s="52"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E44" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F44" s="52"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E45" s="52" t="s">
-        <v>855</v>
-      </c>
-      <c r="F45" s="52"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50" t="s">
-        <v>1711</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F47" s="50"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D49" s="50" t="s">
-        <v>1740</v>
+      <c r="D49" s="51" t="s">
+        <v>1822</v>
       </c>
       <c r="E49" s="36" t="s">
         <v>1664</v>
       </c>
-      <c r="F49" s="50"/>
+      <c r="F49" s="51"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D50" s="50" t="s">
-        <v>1741</v>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>1823</v>
       </c>
       <c r="E50" s="36" t="s">
         <v>1664</v>
       </c>
-      <c r="F50" s="50"/>
+      <c r="F50" s="51"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="36" t="s">
-        <v>1811</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>1742</v>
+        <v>1729</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>1824</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>1664</v>
       </c>
-      <c r="F51" s="50"/>
+      <c r="F51" s="51"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="36" t="s">
-        <v>1817</v>
+        <v>1730</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>1812</v>
+        <v>1825</v>
       </c>
       <c r="E52" s="36" t="s">
         <v>1664</v>
       </c>
-      <c r="F52" s="50"/>
+      <c r="F52" s="51"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C53" s="57" t="s">
-        <v>1813</v>
+      <c r="C53" s="50" t="s">
+        <v>1726</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>1815</v>
+        <v>1826</v>
       </c>
       <c r="E53" s="36" t="s">
         <v>1664</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="57" t="s">
-        <v>1814</v>
+      <c r="C54" s="50" t="s">
+        <v>1727</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>1816</v>
+        <v>1827</v>
       </c>
       <c r="E54" s="36" t="s">
         <v>1664</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="36" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>1808</v>
-      </c>
-      <c r="E55" s="36" t="s">
-        <v>1664</v>
-      </c>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
+        <v>1696</v>
+      </c>
       <c r="C56" s="36" t="s">
-        <v>1807</v>
+        <v>1697</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>1809</v>
+        <v>1828</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>1664</v>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C57" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="1" t="s">
-        <v>1745</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>1746</v>
+        <v>1699</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1750</v>
+        <v>1830</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>835</v>
@@ -7000,10 +6975,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C59" s="1" t="s">
-        <v>1747</v>
+        <v>1700</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1751</v>
+        <v>1831</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>835</v>
@@ -7011,10 +6986,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C60" s="1" t="s">
-        <v>1748</v>
+        <v>1708</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1752</v>
+        <v>1832</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>835</v>
@@ -7022,10 +6997,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C61" s="1" t="s">
-        <v>1749</v>
+        <v>1709</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1753</v>
+        <v>1833</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>835</v>
@@ -7033,178 +7008,168 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C62" s="1" t="s">
-        <v>1769</v>
+        <v>1710</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1770</v>
+        <v>1834</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C63" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C64" s="1" t="s">
-        <v>1773</v>
+        <v>1692</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1772</v>
+        <v>1739</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="52" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D66" s="58" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E66" s="52" t="s">
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E66" s="51" t="s">
         <v>835</v>
       </c>
-      <c r="F66" s="52"/>
+      <c r="F66" s="51"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C67" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>1736</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C68" s="1" t="s">
-        <v>1774</v>
+        <v>1734</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1775</v>
+        <v>1735</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C69" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>1823</v>
+      <c r="F68" s="1" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C70" s="1" t="s">
-        <v>1821</v>
+        <v>1722</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1822</v>
+        <v>1837</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>1823</v>
-      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="56"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D71" s="51" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E71" s="51" t="s">
+        <v>835</v>
+      </c>
+      <c r="F71" s="51"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C72" s="1" t="s">
-        <v>1793</v>
+        <v>1724</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1798</v>
+        <v>1839</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C73" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C74" s="1" t="s">
-        <v>1795</v>
+        <v>1701</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1796</v>
+        <v>1840</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E75" s="51" t="s">
+        <v>835</v>
+      </c>
+      <c r="F75" s="51"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C76" s="1" t="s">
-        <v>1754</v>
+        <v>1703</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1755</v>
+        <v>1842</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C77" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>1757</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C78" s="1" t="s">
-        <v>1758</v>
+        <v>1704</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1759</v>
+        <v>1843</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>835</v>
       </c>
     </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C79" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C80" s="1" t="s">
-        <v>1760</v>
+        <v>1707</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1764</v>
+        <v>1845</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>835</v>
@@ -7212,68 +7177,62 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C81" s="1" t="s">
-        <v>1761</v>
+        <v>1706</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1765</v>
+        <v>1846</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C82" s="1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B83" s="1" t="s">
+        <v>1738</v>
+      </c>
       <c r="C83" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>1767</v>
+        <v>1737</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="52"/>
-      <c r="B85" s="52" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C85" s="52" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="51"/>
+      <c r="B85" s="51" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D85" s="51" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E85" s="51" t="s">
         <v>835</v>
       </c>
-      <c r="F85" s="52"/>
+      <c r="F85" s="51"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="58"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D86" s="51" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E86" s="51" t="s">
+        <v>835</v>
+      </c>
+      <c r="F86" s="51"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B87" s="1" t="s">
-        <v>1818</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>1778</v>
+        <v>1714</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1776</v>
+        <v>1849</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>835</v>
@@ -7281,10 +7240,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C88" s="1" t="s">
-        <v>1779</v>
+        <v>1715</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1777</v>
+        <v>1850</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>835</v>
@@ -7292,10 +7251,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C89" s="1" t="s">
-        <v>1780</v>
+        <v>1716</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1786</v>
+        <v>1851</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>835</v>
@@ -7303,10 +7262,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C90" s="1" t="s">
-        <v>1781</v>
+        <v>1717</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1787</v>
+        <v>1852</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>835</v>
@@ -7314,10 +7273,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C91" s="1" t="s">
-        <v>1782</v>
+        <v>1718</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1788</v>
+        <v>1853</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>835</v>
@@ -7325,10 +7284,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C92" s="1" t="s">
-        <v>1783</v>
+        <v>1719</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1790</v>
+        <v>1854</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>835</v>
@@ -7336,10 +7295,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C93" s="1" t="s">
-        <v>1784</v>
+        <v>1718</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1789</v>
+        <v>1720</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>835</v>
@@ -7347,19 +7306,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C94" s="1" t="s">
-        <v>1785</v>
+        <v>1719</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1791</v>
+        <v>1721</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>835</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7408,14 +7364,14 @@
         <v>1081</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>1846</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>1758</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
@@ -8908,14 +8864,14 @@
         <v>1082</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>1760</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
@@ -9113,7 +9069,7 @@
       <c r="E16" s="17" t="s">
         <v>892</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="58" t="s">
         <v>893</v>
       </c>
     </row>
@@ -9127,7 +9083,7 @@
         <v>895</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="64"/>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
@@ -9203,7 +9159,7 @@
       <c r="E23" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="59" t="s">
         <v>907</v>
       </c>
     </row>
@@ -9219,7 +9175,7 @@
       <c r="E24" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="F24" s="65"/>
+      <c r="F24" s="59"/>
     </row>
     <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
@@ -9233,7 +9189,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="53" t="s">
         <v>911</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -9251,7 +9207,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
-      <c r="B27" s="59"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="1" t="s">
         <v>915</v>
       </c>
@@ -9267,7 +9223,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
-      <c r="B28" s="59"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="1" t="s">
         <v>917</v>
       </c>
@@ -9283,7 +9239,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
-      <c r="B29" s="59"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="17" t="s">
         <v>919</v>
       </c>
@@ -9297,7 +9253,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
-      <c r="B30" s="59"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="17" t="s">
         <v>921</v>
       </c>
@@ -9311,7 +9267,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
-      <c r="B31" s="59"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="17" t="s">
         <v>923</v>
       </c>
@@ -9449,7 +9405,7 @@
       </c>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17" t="s">
@@ -9505,7 +9461,7 @@
       </c>
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17" t="s">
@@ -9921,14 +9877,14 @@
         <v>1083</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>1850</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>1762</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F3" s="22"/>
@@ -10169,7 +10125,7 @@
       <c r="E26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="60" t="s">
         <v>1005</v>
       </c>
       <c r="G26" s="34"/>
@@ -10184,7 +10140,7 @@
       <c r="E27" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="66"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C28" s="24" t="s">
@@ -10196,7 +10152,7 @@
       <c r="E28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="66"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="34"/>
     </row>
     <row r="29" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
@@ -10209,7 +10165,7 @@
       <c r="E29" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="66"/>
+      <c r="F29" s="60"/>
     </row>
     <row r="30" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C30" s="24" t="s">
@@ -10708,14 +10664,14 @@
         <v>1084</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1851</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>1852</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>1764</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
@@ -10758,7 +10714,7 @@
       <c r="E7" s="24" t="s">
         <v>1051</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="60" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -10772,7 +10728,7 @@
       <c r="E8" s="24" t="s">
         <v>1051</v>
       </c>
-      <c r="F8" s="66"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="24" t="s">
@@ -10784,7 +10740,7 @@
       <c r="E9" s="24" t="s">
         <v>1051</v>
       </c>
-      <c r="F9" s="66"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F10" s="42"/>
@@ -11028,14 +10984,14 @@
         <v>1085</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>1766</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -11432,7 +11388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+    <sheetView zoomScale="108" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -11470,14 +11426,14 @@
         <v>1182</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>1856</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>1768</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -12396,14 +12352,14 @@
         <v>1086</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+        <v>1742</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -12711,7 +12667,7 @@
       </c>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29" t="s">
@@ -12950,14 +12906,14 @@
         <v>1074</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+        <v>1744</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -13340,14 +13296,14 @@
         <v>1075</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>1834</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+        <v>1746</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -14154,14 +14110,14 @@
         <v>1076</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>1836</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+        <v>1748</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -14353,14 +14309,14 @@
         <v>1077</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1837</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>1750</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -14730,7 +14686,7 @@
       <c r="E29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="56" t="s">
         <v>191</v>
       </c>
     </row>
@@ -14746,7 +14702,7 @@
       <c r="E30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="62"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
@@ -14760,7 +14716,7 @@
       <c r="E31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="56"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
@@ -14774,7 +14730,7 @@
       <c r="E32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="62"/>
+      <c r="F32" s="56"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
@@ -14788,7 +14744,7 @@
       <c r="E33" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="62"/>
+      <c r="F33" s="56"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
@@ -14802,7 +14758,7 @@
       <c r="E34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="62"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
@@ -14816,7 +14772,7 @@
       <c r="E35" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="62"/>
+      <c r="F35" s="56"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
@@ -14830,7 +14786,7 @@
       <c r="E36" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="62"/>
+      <c r="F36" s="56"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
@@ -14844,7 +14800,7 @@
       <c r="E37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="62"/>
+      <c r="F37" s="56"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
@@ -14858,7 +14814,7 @@
       <c r="E38" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="62"/>
+      <c r="F38" s="56"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
@@ -14872,7 +14828,7 @@
       <c r="E39" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="62"/>
+      <c r="F39" s="56"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
@@ -14886,7 +14842,7 @@
       <c r="E40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="62"/>
+      <c r="F40" s="56"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="17"/>
@@ -14900,7 +14856,7 @@
       <c r="E41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="62"/>
+      <c r="F41" s="56"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
@@ -14914,7 +14870,7 @@
       <c r="E42" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="62"/>
+      <c r="F42" s="56"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="17"/>
@@ -14928,7 +14884,7 @@
       <c r="E43" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="62"/>
+      <c r="F43" s="56"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
@@ -14942,7 +14898,7 @@
       <c r="E44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="62"/>
+      <c r="F44" s="56"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="17"/>
@@ -14956,7 +14912,7 @@
       <c r="E45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="62"/>
+      <c r="F45" s="56"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
@@ -14970,7 +14926,7 @@
       <c r="E46" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="62"/>
+      <c r="F46" s="56"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="17"/>
@@ -15502,7 +15458,7 @@
       <c r="E86" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="62" t="s">
+      <c r="F86" s="56" t="s">
         <v>297</v>
       </c>
     </row>
@@ -15518,7 +15474,7 @@
       <c r="E87" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="62"/>
+      <c r="F87" s="56"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="17"/>
@@ -15532,7 +15488,7 @@
       <c r="E88" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="62"/>
+      <c r="F88" s="56"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="17"/>
@@ -15546,7 +15502,7 @@
       <c r="E89" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="62"/>
+      <c r="F89" s="56"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="17"/>
@@ -15560,7 +15516,7 @@
       <c r="E90" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="62"/>
+      <c r="F90" s="56"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="17"/>
@@ -15574,7 +15530,7 @@
       <c r="E91" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="62"/>
+      <c r="F91" s="56"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="17"/>
@@ -15588,7 +15544,7 @@
       <c r="E92" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F92" s="62"/>
+      <c r="F92" s="56"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="17"/>
@@ -15602,7 +15558,7 @@
       <c r="E93" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="62"/>
+      <c r="F93" s="56"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="17"/>
@@ -15616,7 +15572,7 @@
       <c r="E94" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="62"/>
+      <c r="F94" s="56"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="17"/>
@@ -15630,7 +15586,7 @@
       <c r="E95" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="62"/>
+      <c r="F95" s="56"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="17"/>
@@ -15644,7 +15600,7 @@
       <c r="E96" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="62"/>
+      <c r="F96" s="56"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="17"/>
@@ -15658,7 +15614,7 @@
       <c r="E97" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="62"/>
+      <c r="F97" s="56"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="17"/>
@@ -15672,7 +15628,7 @@
       <c r="E98" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F98" s="62"/>
+      <c r="F98" s="56"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="17"/>
@@ -15686,7 +15642,7 @@
       <c r="E99" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="62"/>
+      <c r="F99" s="56"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="17"/>
@@ -16271,7 +16227,7 @@
       </c>
       <c r="F143" s="17"/>
     </row>
-    <row r="144" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="17"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17" t="s">
@@ -16359,14 +16315,14 @@
         <v>1078</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>1840</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+        <v>1752</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -16381,10 +16337,10 @@
       <c r="B4" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -17121,14 +17077,14 @@
         <v>1079</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1841</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>1842</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>1754</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -17764,14 +17720,14 @@
         <v>1080</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1843</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>1756</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -19372,7 +19328,7 @@
       <c r="E123" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F123" s="62" t="s">
+      <c r="F123" s="56" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -19388,7 +19344,7 @@
       <c r="E124" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F124" s="62"/>
+      <c r="F124" s="56"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="17"/>
@@ -19433,57 +19389,22 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-8880</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-8880</Url>
+      <Description>VMX3MACP777Z-432858100-8880</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="481" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be21cae339529f0f311ef097f4a87693">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fe6dd6fbc47b2b2c3033f1a9c1079fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
@@ -19752,18 +19673,53 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-8880</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-8880</Url>
-      <Description>VMX3MACP777Z-432858100-8880</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19775,34 +19731,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C215EABC-DB34-46B5-A5E5-21478E186E0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
-    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -19818,4 +19746,16 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A513DD4F-880B-4B21-8AC9-37A575E79590}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/Shared Resources/Code/DHS-Indicators-Stata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33697\ICF\Analysis - Shared Resources\Code\DHS-Indicators-Stata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="114_{22754351-CA54-4CBF-B6F8-81EF17E18C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37CF286A-E4CE-4446-9BC5-C336C19BC9E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB928E38-4282-43C6-806C-7944B958E23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="CH15WE" sheetId="13" r:id="rId14"/>
     <sheet name="CH16AM" sheetId="14" r:id="rId15"/>
     <sheet name="CH17DV" sheetId="15" r:id="rId16"/>
+    <sheet name="CH18FG" sheetId="18" r:id="rId17"/>
+    <sheet name="CH19FS" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="1938">
   <si>
     <t>Chapter</t>
   </si>
@@ -2979,9 +2984,6 @@
     <t>"Have two or more sexual partners in the past 12 months and used a condom at last sex"</t>
   </si>
   <si>
-    <t>"Used a condom at last sex with a partner that is not their spouce and does not live with them in the past 12 months"</t>
-  </si>
-  <si>
     <t>hk_paid_sex_12mo</t>
   </si>
   <si>
@@ -5040,9 +5042,6 @@
     <t xml:space="preserve">Main file for the women's empowerment chapter. The main file will call the do files listed below and the WE_tables.do file not listed here. The tables do file will produce excel tables of the indicators. Some of the do files will also produce tables as indicated in the notes below. Please check for country specific variations. </t>
   </si>
   <si>
-    <t>!Dvmain</t>
-  </si>
-  <si>
     <t xml:space="preserve">Main file for the domestic violence chapter. The main file will call the do files listed below and the DV_tables.do file not listed here. The tables do file will produce excel tables of the indicators. Some of the do files will also produce tables as indicated in the notes below. Please check for country specific variations. </t>
   </si>
   <si>
@@ -5701,6 +5700,171 @@
   </si>
   <si>
     <t>"Crude birth rate - Rural"</t>
+  </si>
+  <si>
+    <t>"Used a condom at last sex with a partner that is not their spouse and does not live with them in the past 12 months"</t>
+  </si>
+  <si>
+    <t>!DVmain</t>
+  </si>
+  <si>
+    <t>Female Genital Cutting</t>
+  </si>
+  <si>
+    <t>!FGmain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main file for the female genital cutting chapter. The main file will call the do files listed below and the FG_tables.do file not listed here. The tables do file will produce excel tables of the indicators. Some of the do files will also produce tables as indicated in the notes below. Please check for country specific variations. </t>
+  </si>
+  <si>
+    <t>"Heard of female circumcision"</t>
+  </si>
+  <si>
+    <t>"Circumcised among women age 15-49"</t>
+  </si>
+  <si>
+    <t>IR and BR</t>
+  </si>
+  <si>
+    <t>fg_fcircum_wm</t>
+  </si>
+  <si>
+    <t>"Age at circumcision among girls age 0-14"</t>
+  </si>
+  <si>
+    <t>"Age at circumcision among women age 15-49"</t>
+  </si>
+  <si>
+    <t>"Type of female circumcision among women age 15-49"</t>
+  </si>
+  <si>
+    <t>"Person who performed the circumcision among women age 15-49"</t>
+  </si>
+  <si>
+    <t>"Person who performed the circumcision among girls age 0-14"</t>
+  </si>
+  <si>
+    <t>Fistula</t>
+  </si>
+  <si>
+    <t>!FSmain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main file for the fistula chapter. The main file will call the do files listed below and the FS_tables.do file not listed here. The tables do file will produce excel tables of the indicators. Some of the do files will also produce tables as indicated in the notes below. Please check for country specific variations. </t>
+  </si>
+  <si>
+    <t>fs_heard</t>
+  </si>
+  <si>
+    <t>fg_heard</t>
+  </si>
+  <si>
+    <t>fg_type_wm</t>
+  </si>
+  <si>
+    <t>fg_age_wm</t>
+  </si>
+  <si>
+    <t>fg_who_wm</t>
+  </si>
+  <si>
+    <t>fg_relig</t>
+  </si>
+  <si>
+    <t>fg_cont</t>
+  </si>
+  <si>
+    <t>"Ever heard of fistula"</t>
+  </si>
+  <si>
+    <t>fs_ever_exp</t>
+  </si>
+  <si>
+    <t>"Ever experienced fistula"</t>
+  </si>
+  <si>
+    <t>fs_current</t>
+  </si>
+  <si>
+    <t>"Currently have fistula"</t>
+  </si>
+  <si>
+    <t>fs_cause</t>
+  </si>
+  <si>
+    <t>"Reported cause of fistula"</t>
+  </si>
+  <si>
+    <t>fs_days_symp</t>
+  </si>
+  <si>
+    <t>"Reported number of days since symptoms began"</t>
+  </si>
+  <si>
+    <t>fs_trt_provid</t>
+  </si>
+  <si>
+    <t>"Provider type among those who sought treatment for fistula"</t>
+  </si>
+  <si>
+    <t>fs_notrt</t>
+  </si>
+  <si>
+    <t>"Did not seek treatmeent for fistula"</t>
+  </si>
+  <si>
+    <t>fs_trt_outcome</t>
+  </si>
+  <si>
+    <t>"Outcome of treatment sought for fistula"</t>
+  </si>
+  <si>
+    <t>fs_trt_operat</t>
+  </si>
+  <si>
+    <t>"Had operation for fistula"</t>
+  </si>
+  <si>
+    <t>fs_notrt_reason</t>
+  </si>
+  <si>
+    <t>"Reason for not seeking treatment"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Opinion on whether female circumcision is required by their religion" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Opinion on whether female circumcision should continue" </t>
+  </si>
+  <si>
+    <t>fg_fcircum_gl</t>
+  </si>
+  <si>
+    <t>fg_age_gl</t>
+  </si>
+  <si>
+    <t>fg_who_gl</t>
+  </si>
+  <si>
+    <t>fg_sewn_wm</t>
+  </si>
+  <si>
+    <t>FG_CIRCUM.do</t>
+  </si>
+  <si>
+    <t>FG_GIRLS</t>
+  </si>
+  <si>
+    <t>"Circumcised among girls age 0-14"</t>
+  </si>
+  <si>
+    <t>fg_sewn_gl</t>
+  </si>
+  <si>
+    <t>"Female circumcision type is sewn closed among women age 15-49"</t>
+  </si>
+  <si>
+    <t>"Female circumcision type is sewn closed among girls age 0-14"</t>
   </si>
 </sst>
 </file>
@@ -5790,7 +5954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5806,6 +5970,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5831,7 +6001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5992,6 +6162,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6335,17 +6509,17 @@
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>1636</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -6358,16 +6532,16 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="49"/>
       <c r="B4" s="49" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>1490</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>1491</v>
       </c>
       <c r="F4" s="49"/>
     </row>
@@ -6375,13 +6549,13 @@
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F5" s="49"/>
     </row>
@@ -6389,13 +6563,13 @@
       <c r="A6" s="49"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F6" s="49"/>
     </row>
@@ -6403,13 +6577,13 @@
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>1615</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>1616</v>
-      </c>
       <c r="E7" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F7" s="35"/>
     </row>
@@ -6417,13 +6591,13 @@
       <c r="A8" s="49"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F8" s="49"/>
     </row>
@@ -6431,13 +6605,13 @@
       <c r="A9" s="49"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F9" s="49"/>
     </row>
@@ -6445,13 +6619,13 @@
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F10" s="49"/>
     </row>
@@ -6459,13 +6633,13 @@
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F11" s="49"/>
     </row>
@@ -6473,13 +6647,13 @@
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F12" s="49"/>
     </row>
@@ -6487,13 +6661,13 @@
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F13" s="49"/>
     </row>
@@ -6501,13 +6675,13 @@
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F14" s="49"/>
     </row>
@@ -6515,13 +6689,13 @@
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F15" s="49"/>
     </row>
@@ -6529,13 +6703,13 @@
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D16" s="49" t="s">
         <v>1507</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>1508</v>
-      </c>
       <c r="E16" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F16" s="49"/>
     </row>
@@ -6550,16 +6724,16 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="49"/>
       <c r="B18" s="49" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F18" s="49"/>
     </row>
@@ -6567,13 +6741,13 @@
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F19" s="49"/>
     </row>
@@ -6581,13 +6755,13 @@
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F20" s="35"/>
     </row>
@@ -6595,13 +6769,13 @@
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F21" s="49"/>
     </row>
@@ -6616,16 +6790,16 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="49"/>
       <c r="B23" s="49" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C23" s="49" t="s">
         <v>1512</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="D23" s="49" t="s">
         <v>1513</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>1514</v>
-      </c>
       <c r="E23" s="49" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F23" s="49"/>
     </row>
@@ -6633,13 +6807,13 @@
       <c r="A24" s="49"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D24" s="49" t="s">
         <v>1515</v>
       </c>
-      <c r="D24" s="49" t="s">
-        <v>1516</v>
-      </c>
       <c r="E24" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F24" s="49"/>
     </row>
@@ -6647,13 +6821,13 @@
       <c r="A25" s="49"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D25" s="49" t="s">
         <v>1517</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>1518</v>
-      </c>
       <c r="E25" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F25" s="49"/>
     </row>
@@ -6661,13 +6835,13 @@
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F26" s="49"/>
     </row>
@@ -6675,13 +6849,13 @@
       <c r="A27" s="49"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D27" s="49" t="s">
         <v>1521</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>1522</v>
-      </c>
       <c r="E27" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F27" s="49"/>
     </row>
@@ -6689,13 +6863,13 @@
       <c r="A28" s="49"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D28" s="49" t="s">
         <v>1523</v>
       </c>
-      <c r="D28" s="49" t="s">
-        <v>1524</v>
-      </c>
       <c r="E28" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F28" s="49"/>
     </row>
@@ -6703,13 +6877,13 @@
       <c r="A29" s="49"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D29" s="49" t="s">
         <v>1525</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>1526</v>
-      </c>
       <c r="E29" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F29" s="49"/>
     </row>
@@ -6725,10 +6899,10 @@
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E31" s="51" t="s">
         <v>825</v>
@@ -6739,10 +6913,10 @@
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>825</v>
@@ -6753,10 +6927,10 @@
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>825</v>
@@ -6767,10 +6941,10 @@
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>825</v>
@@ -6781,10 +6955,10 @@
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E35" s="51" t="s">
         <v>825</v>
@@ -6795,10 +6969,10 @@
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>825</v>
@@ -6809,10 +6983,10 @@
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E37" s="51" t="s">
         <v>825</v>
@@ -6823,10 +6997,10 @@
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E38" s="51" t="s">
         <v>825</v>
@@ -6837,10 +7011,10 @@
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E39" s="51" t="s">
         <v>825</v>
@@ -6851,10 +7025,10 @@
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E40" s="51" t="s">
         <v>825</v>
@@ -6865,10 +7039,10 @@
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E41" s="51" t="s">
         <v>825</v>
@@ -6879,10 +7053,10 @@
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E42" s="51" t="s">
         <v>825</v>
@@ -6893,10 +7067,10 @@
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E43" s="51" t="s">
         <v>825</v>
@@ -6915,13 +7089,13 @@
       <c r="A45" s="49"/>
       <c r="B45" s="49"/>
       <c r="C45" s="49" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D45" s="49" t="s">
         <v>1527</v>
       </c>
-      <c r="D45" s="49" t="s">
-        <v>1528</v>
-      </c>
       <c r="E45" s="49" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F45" s="49"/>
     </row>
@@ -6936,16 +7110,16 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="49"/>
       <c r="B47" s="49" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D47" s="49" t="s">
         <v>1555</v>
       </c>
-      <c r="C47" s="49" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D47" s="49" t="s">
-        <v>1556</v>
-      </c>
       <c r="E47" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F47" s="49"/>
     </row>
@@ -6953,13 +7127,13 @@
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="49" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F48" s="49"/>
     </row>
@@ -6967,13 +7141,13 @@
       <c r="A49" s="49"/>
       <c r="B49" s="49"/>
       <c r="C49" s="35" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D49" s="49" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F49" s="49"/>
     </row>
@@ -6981,69 +7155,69 @@
       <c r="A50" s="49"/>
       <c r="B50" s="49"/>
       <c r="C50" s="35" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C51" s="54" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C52" s="54" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C53" s="35" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C54" s="35" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>1562</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>805</v>
@@ -7051,10 +7225,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C57" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>805</v>
@@ -7062,10 +7236,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C58" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>805</v>
@@ -7073,10 +7247,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C59" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>805</v>
@@ -7084,10 +7258,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C60" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>1585</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1586</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>805</v>
@@ -7095,10 +7269,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C61" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>805</v>
@@ -7106,10 +7280,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C62" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>805</v>
@@ -7119,10 +7293,10 @@
       <c r="A64" s="51"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E64" s="51" t="s">
         <v>805</v>
@@ -7131,10 +7305,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C66" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>1590</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>1591</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>805</v>
@@ -7142,30 +7316,30 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C67" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>805</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C68" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>805</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -7178,10 +7352,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C70" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>805</v>
@@ -7189,10 +7363,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C71" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>805</v>
@@ -7200,10 +7374,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C72" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>1611</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>1612</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>805</v>
@@ -7219,10 +7393,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C74" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>1570</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>1571</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>805</v>
@@ -7230,10 +7404,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C75" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>1572</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>1573</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>805</v>
@@ -7241,10 +7415,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C76" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>1574</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>1575</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>805</v>
@@ -7252,10 +7426,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C78" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>805</v>
@@ -7263,10 +7437,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C79" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>805</v>
@@ -7274,10 +7448,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C80" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>805</v>
@@ -7285,10 +7459,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C81" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>805</v>
@@ -7297,10 +7471,10 @@
     <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="51"/>
       <c r="B83" s="51" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D83" s="51"/>
       <c r="E83" s="51" t="s">
@@ -7318,13 +7492,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>805</v>
@@ -7332,10 +7506,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C86" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>805</v>
@@ -7343,10 +7517,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C87" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>805</v>
@@ -7354,10 +7528,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C88" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>805</v>
@@ -7365,10 +7539,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C89" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>805</v>
@@ -7376,10 +7550,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C90" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>805</v>
@@ -7387,10 +7561,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C91" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>805</v>
@@ -7398,10 +7572,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C92" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>805</v>
@@ -7456,17 +7630,17 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1654</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
@@ -7538,10 +7712,10 @@
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>1382</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>1383</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>73</v>
@@ -7669,7 +7843,7 @@
         <v>797</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>767</v>
@@ -7683,7 +7857,7 @@
         <v>798</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>767</v>
@@ -7697,7 +7871,7 @@
         <v>799</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>767</v>
@@ -7711,7 +7885,7 @@
         <v>800</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>767</v>
@@ -7725,7 +7899,7 @@
         <v>801</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>802</v>
@@ -7736,10 +7910,10 @@
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>767</v>
@@ -7749,10 +7923,10 @@
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>767</v>
@@ -7770,7 +7944,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>774</v>
@@ -7851,7 +8025,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>784</v>
@@ -7865,7 +8039,7 @@
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>785</v>
@@ -7879,7 +8053,7 @@
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>786</v>
@@ -7901,10 +8075,10 @@
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>767</v>
@@ -7915,10 +8089,10 @@
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>767</v>
@@ -7929,10 +8103,10 @@
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>767</v>
@@ -7943,10 +8117,10 @@
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>767</v>
@@ -7957,10 +8131,10 @@
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>767</v>
@@ -7971,10 +8145,10 @@
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>767</v>
@@ -7985,10 +8159,10 @@
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>767</v>
@@ -7999,10 +8173,10 @@
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>767</v>
@@ -8013,10 +8187,10 @@
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>767</v>
@@ -8027,10 +8201,10 @@
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>767</v>
@@ -8041,10 +8215,10 @@
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>767</v>
@@ -8054,10 +8228,10 @@
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>767</v>
@@ -8067,10 +8241,10 @@
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>767</v>
@@ -8089,10 +8263,10 @@
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>767</v>
@@ -8104,10 +8278,10 @@
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>767</v>
@@ -8119,10 +8293,10 @@
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>767</v>
@@ -8134,10 +8308,10 @@
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>767</v>
@@ -8157,10 +8331,10 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="C54" s="17" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>767</v>
@@ -8172,10 +8346,10 @@
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>767</v>
@@ -8196,7 +8370,7 @@
         <v>803</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>804</v>
@@ -8210,7 +8384,7 @@
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>806</v>
@@ -8224,7 +8398,7 @@
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>807</v>
@@ -8240,7 +8414,7 @@
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>808</v>
@@ -8253,7 +8427,7 @@
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>809</v>
@@ -8267,10 +8441,10 @@
       <c r="A62" s="31"/>
       <c r="B62" s="31"/>
       <c r="C62" s="46" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D62" s="47" t="s">
         <v>1470</v>
-      </c>
-      <c r="D62" s="47" t="s">
-        <v>1471</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>805</v>
@@ -8281,7 +8455,7 @@
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D63" s="46" t="s">
         <v>810</v>
@@ -8297,7 +8471,7 @@
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="46" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D64" s="46" t="s">
         <v>811</v>
@@ -8311,7 +8485,7 @@
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="46" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D65" s="46" t="s">
         <v>812</v>
@@ -8325,10 +8499,10 @@
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
       <c r="C66" s="46" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E66" s="46" t="s">
         <v>805</v>
@@ -8339,7 +8513,7 @@
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>813</v>
@@ -8443,10 +8617,10 @@
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>1472</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>1473</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>825</v>
@@ -8464,13 +8638,13 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="48"/>
       <c r="B77" s="17" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C77" s="48" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D77" s="48" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E77" s="48" t="s">
         <v>14</v>
@@ -8481,10 +8655,10 @@
       <c r="A78" s="48"/>
       <c r="B78" s="48"/>
       <c r="C78" s="48" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D78" s="48" t="s">
         <v>1474</v>
-      </c>
-      <c r="D78" s="48" t="s">
-        <v>1475</v>
       </c>
       <c r="E78" s="48" t="s">
         <v>14</v>
@@ -8495,10 +8669,10 @@
       <c r="A79" s="48"/>
       <c r="B79" s="48"/>
       <c r="C79" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D79" s="48" t="s">
         <v>1476</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>1477</v>
       </c>
       <c r="E79" s="48" t="s">
         <v>14</v>
@@ -8509,10 +8683,10 @@
       <c r="A80" s="48"/>
       <c r="B80" s="48"/>
       <c r="C80" s="48" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D80" s="48" t="s">
         <v>1478</v>
-      </c>
-      <c r="D80" s="48" t="s">
-        <v>1479</v>
       </c>
       <c r="E80" s="48" t="s">
         <v>14</v>
@@ -8531,10 +8705,10 @@
       <c r="A82" s="48"/>
       <c r="B82" s="48"/>
       <c r="C82" s="48" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D82" s="48" t="s">
         <v>1482</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>1483</v>
       </c>
       <c r="E82" s="48" t="s">
         <v>14</v>
@@ -8545,10 +8719,10 @@
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>14</v>
@@ -8560,10 +8734,10 @@
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="17"/>
       <c r="C84" s="17" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>14</v>
@@ -8574,10 +8748,10 @@
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>14</v>
@@ -8588,10 +8762,10 @@
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>14</v>
@@ -8602,10 +8776,10 @@
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>14</v>
@@ -8616,10 +8790,10 @@
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>14</v>
@@ -8630,10 +8804,10 @@
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>14</v>
@@ -8644,10 +8818,10 @@
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>14</v>
@@ -8658,7 +8832,7 @@
       <c r="A91" s="17"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>826</v>
@@ -8672,7 +8846,7 @@
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>827</v>
@@ -8686,10 +8860,10 @@
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
       <c r="C93" s="48" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D93" s="48" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E93" s="48" t="s">
         <v>828</v>
@@ -8707,13 +8881,13 @@
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>19</v>
@@ -8724,10 +8898,10 @@
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>19</v>
@@ -8740,10 +8914,10 @@
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>19</v>
@@ -8754,10 +8928,10 @@
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>19</v>
@@ -8768,10 +8942,10 @@
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>19</v>
@@ -8782,10 +8956,10 @@
       <c r="A100" s="17"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>19</v>
@@ -8796,10 +8970,10 @@
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>19</v>
@@ -8810,10 +8984,10 @@
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>19</v>
@@ -8824,10 +8998,10 @@
       <c r="A103" s="17"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>19</v>
@@ -8956,17 +9130,17 @@
     </row>
     <row r="2" spans="1:6" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1656</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
@@ -9164,7 +9338,7 @@
       <c r="E16" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="67" t="s">
         <v>863</v>
       </c>
     </row>
@@ -9178,7 +9352,7 @@
         <v>865</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="65"/>
+      <c r="F17" s="67"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
@@ -9187,7 +9361,7 @@
         <v>866</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="20"/>
@@ -9254,7 +9428,7 @@
       <c r="E23" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="68" t="s">
         <v>876</v>
       </c>
     </row>
@@ -9270,7 +9444,7 @@
       <c r="E24" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="F24" s="66"/>
+      <c r="F24" s="68"/>
     </row>
     <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
@@ -9284,7 +9458,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="62" t="s">
         <v>880</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -9302,7 +9476,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
-      <c r="B27" s="60"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="1" t="s">
         <v>884</v>
       </c>
@@ -9318,7 +9492,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
-      <c r="B28" s="60"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="1" t="s">
         <v>886</v>
       </c>
@@ -9334,7 +9508,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
-      <c r="B29" s="60"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="17" t="s">
         <v>888</v>
       </c>
@@ -9348,7 +9522,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
-      <c r="B30" s="60"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="17" t="s">
         <v>890</v>
       </c>
@@ -9362,7 +9536,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
-      <c r="B31" s="60"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="17" t="s">
         <v>892</v>
       </c>
@@ -9933,8 +10107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9969,17 +10143,17 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1658</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F3" s="22"/>
@@ -9989,7 +10163,7 @@
     </row>
     <row r="5" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>955</v>
@@ -10004,7 +10178,7 @@
     </row>
     <row r="6" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="24" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>959</v>
@@ -10016,7 +10190,7 @@
     </row>
     <row r="7" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C7" s="24" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>957</v>
@@ -10028,7 +10202,7 @@
     </row>
     <row r="8" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C8" s="24" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>958</v>
@@ -10040,7 +10214,7 @@
     </row>
     <row r="9" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C9" s="24" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>960</v>
@@ -10052,7 +10226,7 @@
     </row>
     <row r="10" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C10" s="24" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>961</v>
@@ -10064,7 +10238,7 @@
     </row>
     <row r="11" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C11" s="24" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>962</v>
@@ -10076,7 +10250,7 @@
     </row>
     <row r="12" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C12" s="24" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>963</v>
@@ -10088,7 +10262,7 @@
     </row>
     <row r="13" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C13" s="24" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>964</v>
@@ -10100,7 +10274,7 @@
     </row>
     <row r="14" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C14" s="24" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>965</v>
@@ -10113,10 +10287,10 @@
     <row r="15" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C16" s="24" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>9</v>
@@ -10125,7 +10299,7 @@
     </row>
     <row r="17" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C17" s="24" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>966</v>
@@ -10136,7 +10310,7 @@
     </row>
     <row r="18" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C18" s="24" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>967</v>
@@ -10147,7 +10321,7 @@
     </row>
     <row r="19" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C19" s="24" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>968</v>
@@ -10158,7 +10332,7 @@
     </row>
     <row r="20" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="24" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>969</v>
@@ -10170,7 +10344,7 @@
     <row r="21" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="24" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>970</v>
@@ -10182,7 +10356,7 @@
     </row>
     <row r="23" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C23" s="24" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>971</v>
@@ -10194,7 +10368,7 @@
     </row>
     <row r="24" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C24" s="24" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>972</v>
@@ -10209,10 +10383,10 @@
     </row>
     <row r="26" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="24" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>1285</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>1286</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>973</v>
@@ -10220,14 +10394,14 @@
       <c r="E26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="69" t="s">
         <v>974</v>
       </c>
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C27" s="24" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>975</v>
@@ -10235,11 +10409,11 @@
       <c r="E27" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="67"/>
+      <c r="F27" s="69"/>
     </row>
     <row r="28" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C28" s="24" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>976</v>
@@ -10247,27 +10421,27 @@
       <c r="E28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="33"/>
     </row>
     <row r="29" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C29" s="24" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>977</v>
+        <v>1883</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="67"/>
+      <c r="F29" s="69"/>
     </row>
     <row r="30" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C30" s="24" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>1298</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>1299</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>9</v>
@@ -10281,10 +10455,10 @@
     </row>
     <row r="32" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C32" s="24" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>19</v>
@@ -10294,10 +10468,10 @@
     </row>
     <row r="33" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C33" s="24" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>19</v>
@@ -10306,10 +10480,10 @@
     </row>
     <row r="34" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C34" s="24" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>19</v>
@@ -10321,13 +10495,13 @@
     </row>
     <row r="36" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="24" t="s">
+        <v>982</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>983</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="D36" s="24" t="s">
         <v>984</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>985</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>9</v>
@@ -10336,10 +10510,10 @@
     </row>
     <row r="37" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="24" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>9</v>
@@ -10349,10 +10523,10 @@
     </row>
     <row r="38" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C38" s="24" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>9</v>
@@ -10361,10 +10535,10 @@
     </row>
     <row r="39" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="24" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>9</v>
@@ -10377,10 +10551,10 @@
     </row>
     <row r="41" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="24" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>14</v>
@@ -10389,10 +10563,10 @@
     </row>
     <row r="42" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="24" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>14</v>
@@ -10401,28 +10575,28 @@
     </row>
     <row r="43" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="24" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F43" s="38"/>
     </row>
     <row r="44" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C44" s="24" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F44" s="38"/>
     </row>
     <row r="45" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C45" s="24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>14</v>
@@ -10431,10 +10605,10 @@
     </row>
     <row r="46" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C46" s="24" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>14</v>
@@ -10443,19 +10617,19 @@
     </row>
     <row r="47" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C47" s="24" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C48" s="24" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>9</v>
@@ -10464,10 +10638,10 @@
     </row>
     <row r="49" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C49" s="24" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D49" s="24" t="s">
         <v>1006</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>1007</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>9</v>
@@ -10479,13 +10653,13 @@
     </row>
     <row r="51" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="24" t="s">
+        <v>991</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>992</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>993</v>
-      </c>
       <c r="D51" s="24" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>19</v>
@@ -10494,10 +10668,10 @@
     </row>
     <row r="52" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C52" s="40" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>19</v>
@@ -10510,13 +10684,13 @@
     </row>
     <row r="54" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>995</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="D54" s="24" t="s">
         <v>996</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>997</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>9</v>
@@ -10525,10 +10699,10 @@
     </row>
     <row r="55" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C55" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="D55" s="24" t="s">
         <v>998</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>999</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>9</v>
@@ -10537,10 +10711,10 @@
     </row>
     <row r="56" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C56" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>1000</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>1001</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>9</v>
@@ -10549,10 +10723,10 @@
     </row>
     <row r="57" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C57" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D57" s="24" t="s">
         <v>1002</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>1003</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>9</v>
@@ -10561,10 +10735,10 @@
     </row>
     <row r="58" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C58" s="24" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>9</v>
@@ -10574,28 +10748,28 @@
     </row>
     <row r="59" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C59" s="24" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C60" s="24" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C61" s="24" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>1312</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>1313</v>
       </c>
       <c r="F61" s="39"/>
     </row>
@@ -10607,13 +10781,13 @@
     </row>
     <row r="64" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>1008</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>1009</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>9</v>
@@ -10623,10 +10797,10 @@
     </row>
     <row r="65" spans="3:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C65" s="24" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>9</v>
@@ -10635,10 +10809,10 @@
     </row>
     <row r="66" spans="3:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C66" s="24" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>9</v>
@@ -10647,10 +10821,10 @@
     </row>
     <row r="67" spans="3:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C67" s="24" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>9</v>
@@ -10719,8 +10893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10756,147 +10930,147 @@
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1660</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>1013</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>1014</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>1015</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>1017</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>1018</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>1019</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>1020</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="24" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>1022</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>1023</v>
-      </c>
       <c r="E7" s="24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F7" s="69" t="s">
         <v>1020</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" s="24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>1024</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>1025</v>
-      </c>
       <c r="E8" s="24" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F8" s="67"/>
+        <v>1019</v>
+      </c>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>1026</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>1027</v>
-      </c>
       <c r="E9" s="24" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F9" s="67"/>
+        <v>1019</v>
+      </c>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="24" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" s="24" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="24" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="24" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" s="24" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F15" s="41"/>
     </row>
@@ -10905,61 +11079,61 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C17" s="24" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>1330</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>1331</v>
-      </c>
       <c r="E17" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F17" s="42"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C18" s="24" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F18" s="42"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C19" s="24" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F19" s="42"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C20" s="24" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F20" s="42"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C21" s="24" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F21" s="42"/>
     </row>
@@ -10968,13 +11142,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C23" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>1038</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="E23" s="24" t="s">
         <v>1039</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
@@ -10982,49 +11156,49 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="24" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>1028</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>1029</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="E26" s="24" t="s">
         <v>1030</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C27" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>1032</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>1033</v>
-      </c>
       <c r="E27" s="24" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C28" s="24" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C29" s="24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>1036</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>1037</v>
-      </c>
       <c r="E29" s="24" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -11076,27 +11250,27 @@
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1662</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>1091</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>1092</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>9</v>
@@ -11104,10 +11278,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>1093</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>1094</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>9</v>
@@ -11115,10 +11289,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -11126,10 +11300,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -11137,10 +11311,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -11148,10 +11322,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -11159,10 +11333,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -11170,10 +11344,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -11181,10 +11355,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D12" t="s">
         <v>1107</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1108</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -11192,10 +11366,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D13" t="s">
         <v>1109</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1110</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -11203,10 +11377,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D14" t="s">
         <v>1111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1112</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -11214,10 +11388,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D15" t="s">
         <v>1113</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1114</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -11225,10 +11399,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D16" t="s">
         <v>1115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1116</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -11236,13 +11410,13 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C18" t="s">
         <v>1118</v>
       </c>
-      <c r="C18" t="s">
-        <v>1119</v>
-      </c>
       <c r="D18" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -11251,10 +11425,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -11262,10 +11436,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D20" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -11273,10 +11447,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D21" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -11284,10 +11458,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D22" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -11295,10 +11469,10 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D23" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -11307,10 +11481,10 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D24" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -11318,10 +11492,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D25" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -11329,10 +11503,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D27" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -11340,10 +11514,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D28" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -11351,10 +11525,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D29" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -11362,10 +11536,10 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D30" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -11374,10 +11548,10 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D31" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -11386,10 +11560,10 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D32" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -11397,10 +11571,10 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D34" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -11409,10 +11583,10 @@
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -11420,10 +11594,10 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D36" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -11431,10 +11605,10 @@
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D37" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -11442,18 +11616,18 @@
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D39" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D40" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
   </sheetData>
@@ -11469,9 +11643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11503,52 +11675,52 @@
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+        <v>1857</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C3" s="59"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E4" t="s">
         <v>1875</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1850</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1870</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="D5" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="E5" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="D6" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -11556,10 +11728,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="D7" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -11567,10 +11739,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -11578,10 +11750,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>1872</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>1874</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -11589,10 +11761,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="D10" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -11600,10 +11772,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D11" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -11611,13 +11783,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="C13" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="D13" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -11625,10 +11797,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="D14" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -11636,10 +11808,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D15" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -11657,8 +11829,1431 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="62.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="35" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="59" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="59" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="59" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="59" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="59" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="59" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="59" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="59" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="59" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C17" s="59" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C18" s="59" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C19" s="59" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C20" s="59" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="59" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C22" s="59" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C23" s="35" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C24" s="35" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C25" s="59" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C26" s="59" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C27" s="59" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C28" s="59" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C29" s="59" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C30" s="59" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C31" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C32" s="59" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C33" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C34" s="59" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C35" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C36" s="59" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C37" s="59" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C38" s="59" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C39" s="59" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C40" s="59" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C41" s="59" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C42" s="59" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C43" s="59" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C44" s="59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C45" s="59" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C46" s="59" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="43"/>
+      <c r="C47" s="59" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="43"/>
+      <c r="C48" s="59" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="43"/>
+      <c r="C49" s="59" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="43"/>
+      <c r="C50" s="59" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="43"/>
+      <c r="C51" s="59" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="43"/>
+      <c r="C52" s="59" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="43"/>
+      <c r="C53" s="59" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C54" s="59" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C55" s="59" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C56" s="59" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C57" s="59" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C58" s="59" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C59" s="59" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C62" s="59" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C63" s="59" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C64" s="59" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C65" s="59" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C66" s="59" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C67" s="59" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C68" s="59" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C69" s="59" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C70" s="59" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C71" s="59" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C72" s="59" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C73" s="59" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C74" s="59" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C75" s="59" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C76" s="59" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C77" s="59" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C78" s="59" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C79" s="59" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C80" s="59" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C81" s="59" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C82" s="59" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C83" s="59" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C84" s="59" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C85" s="59" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C86" s="59" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C87" s="59" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C88" s="59" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C89" s="59" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C90" s="59" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C91" s="59" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92" s="43"/>
+      <c r="C92" s="59" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B93" s="43"/>
+      <c r="C93" s="59" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94" s="43"/>
+      <c r="C94" s="59" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B95" s="43"/>
+      <c r="C95" s="59" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B96" s="43"/>
+      <c r="C96" s="59" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97" s="43"/>
+      <c r="C97" s="59" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98" s="43"/>
+      <c r="C98" s="59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B99" s="43"/>
+      <c r="C99" s="59" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B100" s="43"/>
+      <c r="C100" s="59" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B101" s="43"/>
+      <c r="C101" s="59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B102" s="43"/>
+      <c r="C102" s="59" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B103" s="43"/>
+      <c r="C103" s="59" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B104" s="43"/>
+      <c r="C104" s="59" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B105" s="43"/>
+      <c r="C105" s="59" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B106" s="43"/>
+      <c r="C106" s="59" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B107" s="43"/>
+      <c r="C107" s="59" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B108" s="43"/>
+      <c r="C108" s="59" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C109" s="59" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B110" s="6"/>
+      <c r="C110" s="59" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B111" s="6"/>
+      <c r="C111" s="59" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B112" s="6"/>
+      <c r="C112" s="59" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B113" s="6"/>
+      <c r="C113" s="59" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B114" s="6"/>
+      <c r="C114" s="59" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B115" s="6"/>
+      <c r="C115" s="59" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B116" s="6"/>
+      <c r="C116" s="59" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B117" s="6"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B118" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C118" s="59" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B119" s="6"/>
+      <c r="C119" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B120" s="6"/>
+      <c r="C120" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B121" s="6"/>
+      <c r="C121" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B122" s="6"/>
+      <c r="C122" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B123" s="6"/>
+      <c r="C123" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D67F9F-843E-495E-AF6B-DD470CD899F4}">
+  <dimension ref="A1:F127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11690,1045 +13285,562 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="60" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>1373</v>
+        <v>1932</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1901</v>
       </c>
       <c r="D4" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1861</v>
+        <v>1888</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="35" t="s">
-        <v>1717</v>
+      <c r="C5" s="59" t="s">
+        <v>1891</v>
       </c>
       <c r="D5" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1861</v>
+        <v>1889</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" s="59" t="s">
-        <v>1266</v>
+        <v>1902</v>
       </c>
       <c r="D6" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1861</v>
+        <v>1894</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" s="59" t="s">
-        <v>1372</v>
+        <v>1903</v>
       </c>
       <c r="D7" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1861</v>
+        <v>1893</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" s="59" t="s">
-        <v>1718</v>
+        <v>1904</v>
       </c>
       <c r="D8" t="s">
-        <v>1777</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1861</v>
+        <v>1895</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="59" t="s">
-        <v>1374</v>
+        <v>1931</v>
       </c>
       <c r="D9" t="s">
-        <v>1778</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1861</v>
+        <v>1936</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" s="59" t="s">
-        <v>1175</v>
+        <v>1905</v>
       </c>
       <c r="D10" t="s">
-        <v>1779</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1861</v>
+        <v>1926</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="59" t="s">
-        <v>1176</v>
+        <v>1906</v>
       </c>
       <c r="D11" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="59" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1861</v>
+        <v>1927</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>1933</v>
+      </c>
       <c r="C13" s="59" t="s">
-        <v>1371</v>
+        <v>1928</v>
       </c>
       <c r="D13" t="s">
-        <v>1782</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1861</v>
+        <v>1934</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="59" t="s">
-        <v>1719</v>
+        <v>1929</v>
       </c>
       <c r="D14" t="s">
-        <v>1783</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1861</v>
+        <v>1892</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" s="59" t="s">
-        <v>1341</v>
+        <v>1930</v>
       </c>
       <c r="D15" t="s">
-        <v>1784</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1861</v>
+        <v>1896</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="59" t="s">
-        <v>1342</v>
+        <v>1935</v>
       </c>
       <c r="D16" t="s">
-        <v>1785</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="59" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1786</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="59" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C19" s="59" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1788</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="59" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1789</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C21" s="59" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1790</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="59" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1791</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C23" s="35" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>1792</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C24" s="35" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>1793</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C25" s="59" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1794</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="59" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C27" s="59" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1796</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C28" s="59" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1797</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C29" s="59" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C30" s="59" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C31" s="59" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="59" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1801</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C33" s="59" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1802</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="59" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1803</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="59" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1804</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C36" s="59" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1805</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="59" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1806</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="59" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C39" s="59" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1767</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C40" s="59" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1768</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C41" s="59" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="59" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C43" s="59" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C44" s="59" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C45" s="59" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C46" s="59" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="43"/>
-      <c r="C47" s="59" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="43"/>
-      <c r="C48" s="59" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1861</v>
-      </c>
+        <v>1937</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="35"/>
+      <c r="D25" s="60"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="35"/>
+      <c r="D26" s="60"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="43"/>
-      <c r="C49" s="59" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1772</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1861</v>
-      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="43"/>
-      <c r="C50" s="59" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1861</v>
-      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="43"/>
-      <c r="C51" s="59" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1773</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1861</v>
-      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="43"/>
-      <c r="C52" s="59" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1861</v>
-      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="43"/>
-      <c r="C53" s="59" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1775</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1861</v>
-      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="59" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1776</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1861</v>
-      </c>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C55" s="59" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C56" s="59" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1735</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C57" s="59" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C58" s="59" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1731</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C59" s="59" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>1741</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C62" s="59" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1861</v>
-      </c>
+      <c r="B55" s="43"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>1738</v>
+      </c>
       <c r="C63" s="59" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1821</v>
+        <v>1739</v>
       </c>
       <c r="F63" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C64" s="59" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D64" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="F64" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" s="59" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="D65" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="F65" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" s="59" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="D66" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="F66" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" s="59" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="D67" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="F67" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" s="59" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D68" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="F68" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" s="59" t="s">
-        <v>1742</v>
+        <v>1353</v>
       </c>
       <c r="D69" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="F69" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" s="59" t="s">
-        <v>1743</v>
+        <v>1354</v>
       </c>
       <c r="D70" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="F70" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" s="59" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="D71" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="F71" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" s="59" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="D72" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="F72" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" s="59" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="D73" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="F73" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" s="59" t="s">
-        <v>1356</v>
+        <v>1743</v>
       </c>
       <c r="D74" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="F74" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" s="59" t="s">
-        <v>1357</v>
+        <v>1744</v>
       </c>
       <c r="D75" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="F75" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" s="59" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="D76" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="F76" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" s="59" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D77" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="F77" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" s="59" t="s">
-        <v>1747</v>
+        <v>1357</v>
       </c>
       <c r="D78" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="F78" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" s="59" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D79" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="F79" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" s="59" t="s">
-        <v>1361</v>
+        <v>1745</v>
       </c>
       <c r="D80" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="F80" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C81" s="59" t="s">
-        <v>1748</v>
+        <v>1359</v>
       </c>
       <c r="D81" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="F81" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C82" s="59" t="s">
-        <v>1749</v>
+        <v>1360</v>
       </c>
       <c r="D82" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="F82" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C83" s="59" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D83" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="F83" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C84" s="59" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="D84" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="F84" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C85" s="59" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="D85" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="F85" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C86" s="59" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="D86" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="F86" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C87" s="59" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D87" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="F87" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C88" s="59" t="s">
-        <v>1362</v>
+        <v>1751</v>
       </c>
       <c r="D88" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="F88" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C89" s="59" t="s">
-        <v>1363</v>
+        <v>1752</v>
       </c>
       <c r="D89" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="F89" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C90" s="59" t="s">
-        <v>1755</v>
+        <v>1361</v>
       </c>
       <c r="D90" t="s">
-        <v>1808</v>
+        <v>1844</v>
       </c>
       <c r="F90" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C91" s="59" t="s">
-        <v>1756</v>
+        <v>1362</v>
       </c>
       <c r="D91" t="s">
-        <v>1809</v>
+        <v>1845</v>
       </c>
       <c r="F91" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B92" s="43"/>
       <c r="C92" s="59" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="D92" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="F92" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B93" s="43"/>
       <c r="C93" s="59" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="D93" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="F93" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94" s="43"/>
       <c r="C94" s="59" t="s">
-        <v>1364</v>
+        <v>1755</v>
       </c>
       <c r="D94" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="F94" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95" s="43"/>
       <c r="C95" s="59" t="s">
-        <v>1366</v>
+        <v>1756</v>
       </c>
       <c r="D95" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="F95" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96" s="43"/>
       <c r="C96" s="59" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D96" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="F96" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
@@ -12737,336 +13849,360 @@
         <v>1365</v>
       </c>
       <c r="D97" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="F97" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="43"/>
       <c r="C98" s="59" t="s">
-        <v>1184</v>
+        <v>1366</v>
       </c>
       <c r="D98" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="F98" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="43"/>
       <c r="C99" s="59" t="s">
-        <v>1759</v>
+        <v>1364</v>
       </c>
       <c r="D99" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="F99" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100" s="43"/>
       <c r="C100" s="59" t="s">
-        <v>1264</v>
+        <v>1183</v>
       </c>
       <c r="D100" t="s">
-        <v>1185</v>
+        <v>1810</v>
       </c>
       <c r="F100" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="43"/>
       <c r="C101" s="59" t="s">
-        <v>1265</v>
+        <v>1757</v>
       </c>
       <c r="D101" t="s">
-        <v>1186</v>
+        <v>1815</v>
       </c>
       <c r="F101" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="43"/>
       <c r="C102" s="59" t="s">
-        <v>1348</v>
+        <v>1263</v>
       </c>
       <c r="D102" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="F102" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103" s="43"/>
       <c r="C103" s="59" t="s">
-        <v>1368</v>
+        <v>1264</v>
       </c>
       <c r="D103" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="F103" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="43"/>
       <c r="C104" s="59" t="s">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="D104" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="F104" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="43"/>
       <c r="C105" s="59" t="s">
-        <v>1722</v>
+        <v>1367</v>
       </c>
       <c r="D105" t="s">
-        <v>1771</v>
+        <v>1187</v>
       </c>
       <c r="F105" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106" s="43"/>
       <c r="C106" s="59" t="s">
-        <v>1723</v>
+        <v>1368</v>
       </c>
       <c r="D106" t="s">
-        <v>1772</v>
+        <v>1188</v>
       </c>
       <c r="F106" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107" s="43"/>
       <c r="C107" s="59" t="s">
-        <v>1760</v>
+        <v>1720</v>
       </c>
       <c r="D107" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="F107" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108" s="43"/>
       <c r="C108" s="59" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="D108" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="F108" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B109" s="43"/>
       <c r="C109" s="59" t="s">
-        <v>1725</v>
+        <v>1758</v>
       </c>
       <c r="D109" t="s">
-        <v>1774</v>
+        <v>1759</v>
       </c>
       <c r="F109" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B110" s="6"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="59" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="D110" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="F110" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B111" s="6"/>
       <c r="C111" s="59" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="D111" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="F111" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B112" s="6"/>
       <c r="C112" s="59" t="s">
-        <v>1762</v>
+        <v>1724</v>
       </c>
       <c r="D112" t="s">
-        <v>1818</v>
+        <v>1773</v>
       </c>
       <c r="F112" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B113" s="6"/>
       <c r="C113" s="59" t="s">
-        <v>1763</v>
+        <v>1725</v>
       </c>
       <c r="D113" t="s">
-        <v>1735</v>
+        <v>1774</v>
       </c>
       <c r="F113" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B114" s="6"/>
       <c r="C114" s="59" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="D114" t="s">
-        <v>1733</v>
+        <v>1816</v>
       </c>
       <c r="F114" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B115" s="6"/>
       <c r="C115" s="59" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="D115" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="F115" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B116" s="6"/>
       <c r="C116" s="59" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="D116" t="s">
-        <v>1819</v>
+        <v>1731</v>
       </c>
       <c r="F116" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B117" s="6"/>
+      <c r="C117" s="59" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B118" s="6" t="s">
-        <v>1714</v>
-      </c>
+      <c r="B118" s="6"/>
       <c r="C118" s="59" t="s">
-        <v>1258</v>
+        <v>1764</v>
       </c>
       <c r="D118" t="s">
-        <v>1178</v>
+        <v>1817</v>
       </c>
       <c r="F118" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B119" s="6"/>
-      <c r="C119" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F119" t="s">
-        <v>1861</v>
-      </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B120" s="6"/>
-      <c r="C120" t="s">
-        <v>1262</v>
+      <c r="B120" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C120" s="59" t="s">
+        <v>1257</v>
       </c>
       <c r="D120" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="F120" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B121" s="6"/>
       <c r="C121" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="D121" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="F121" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B122" s="6"/>
       <c r="C122" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D122" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="F122" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B123" s="6"/>
       <c r="C123" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D123" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="F123" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B124" s="6"/>
       <c r="C124" t="s">
-        <v>1848</v>
+        <v>1259</v>
       </c>
       <c r="D124" t="s">
-        <v>1716</v>
+        <v>1181</v>
       </c>
       <c r="F124" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B125" s="6"/>
       <c r="C125" t="s">
-        <v>1849</v>
+        <v>1260</v>
       </c>
       <c r="D125" t="s">
-        <v>1715</v>
+        <v>1182</v>
       </c>
       <c r="F125" t="s">
-        <v>1861</v>
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1859</v>
       </c>
     </row>
   </sheetData>
@@ -13074,7 +14210,943 @@
     <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311CF17F-B9D7-4FAE-9BAC-09E565075D78}">
+  <dimension ref="A1:F127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="62.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="60" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="35" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="59" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="59" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="59" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="59" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="59" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="61" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="59" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="61" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="35"/>
+      <c r="D25" s="60"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="35"/>
+      <c r="D26" s="60"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="43"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="43"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="43"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="43"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="43"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="43"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="43"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C64" s="59" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C65" s="59" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C66" s="59" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C67" s="59" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C68" s="59" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C69" s="59" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C70" s="59" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C71" s="59" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C72" s="59" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C73" s="59" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C74" s="59" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C75" s="59" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C76" s="59" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C77" s="59" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C78" s="59" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C79" s="59" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C80" s="59" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C81" s="59" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C82" s="59" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C83" s="59" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C84" s="59" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C85" s="59" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C86" s="59" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C87" s="59" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C88" s="59" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C89" s="59" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C90" s="59" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C91" s="59" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C92" s="59" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C93" s="59" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94" s="43"/>
+      <c r="C94" s="59" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B95" s="43"/>
+      <c r="C95" s="59" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B96" s="43"/>
+      <c r="C96" s="59" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97" s="43"/>
+      <c r="C97" s="59" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98" s="43"/>
+      <c r="C98" s="59" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B99" s="43"/>
+      <c r="C99" s="59" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B100" s="43"/>
+      <c r="C100" s="59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B101" s="43"/>
+      <c r="C101" s="59" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B102" s="43"/>
+      <c r="C102" s="59" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B103" s="43"/>
+      <c r="C103" s="59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B104" s="43"/>
+      <c r="C104" s="59" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B105" s="43"/>
+      <c r="C105" s="59" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B106" s="43"/>
+      <c r="C106" s="59" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B107" s="43"/>
+      <c r="C107" s="59" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B108" s="43"/>
+      <c r="C108" s="59" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B109" s="43"/>
+      <c r="C109" s="59" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B110" s="43"/>
+      <c r="C110" s="59" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C111" s="59" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B112" s="6"/>
+      <c r="C112" s="59" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B113" s="6"/>
+      <c r="C113" s="59" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B114" s="6"/>
+      <c r="C114" s="59" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B115" s="6"/>
+      <c r="C115" s="59" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B116" s="6"/>
+      <c r="C116" s="59" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B117" s="6"/>
+      <c r="C117" s="59" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B118" s="6"/>
+      <c r="C118" s="59" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B119" s="6"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B120" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C120" s="59" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B121" s="6"/>
+      <c r="C121" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B122" s="6"/>
+      <c r="C122" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B123" s="6"/>
+      <c r="C123" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B124" s="6"/>
+      <c r="C124" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B125" s="6"/>
+      <c r="C125" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13119,17 +15191,17 @@
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>1638</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -13142,13 +15214,13 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>1056</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>1057</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>9</v>
@@ -13159,10 +15231,10 @@
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>1058</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>1059</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>9</v>
@@ -13175,10 +15247,10 @@
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>9</v>
@@ -13189,10 +15261,10 @@
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>9</v>
@@ -13203,10 +15275,10 @@
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>9</v>
@@ -13217,10 +15289,10 @@
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>9</v>
@@ -13231,10 +15303,10 @@
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>9</v>
@@ -13245,10 +15317,10 @@
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>9</v>
@@ -13259,10 +15331,10 @@
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>9</v>
@@ -13273,10 +15345,10 @@
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>1065</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>1066</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>9</v>
@@ -13287,10 +15359,10 @@
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>1067</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>1068</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>9</v>
@@ -13301,10 +15373,10 @@
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>1069</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>1070</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>9</v>
@@ -13315,10 +15387,10 @@
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>9</v>
@@ -13329,10 +15401,10 @@
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>1072</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>1073</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>9</v>
@@ -13343,10 +15415,10 @@
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>9</v>
@@ -13357,10 +15429,10 @@
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>9</v>
@@ -13371,10 +15443,10 @@
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>9</v>
@@ -13385,10 +15457,10 @@
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>9</v>
@@ -13399,10 +15471,10 @@
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>9</v>
@@ -13413,10 +15485,10 @@
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>9</v>
@@ -13427,10 +15499,10 @@
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>9</v>
@@ -13441,10 +15513,10 @@
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>9</v>
@@ -13455,10 +15527,10 @@
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>1080</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>1081</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>9</v>
@@ -13469,10 +15541,10 @@
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>1082</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>1083</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>9</v>
@@ -13483,10 +15555,10 @@
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>1084</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>1085</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>9</v>
@@ -13497,10 +15569,10 @@
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>1220</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>1221</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>9</v>
@@ -13511,10 +15583,10 @@
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>1087</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>1088</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>19</v>
@@ -13525,10 +15597,10 @@
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>1089</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>1090</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>19</v>
@@ -13539,10 +15611,10 @@
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>9</v>
@@ -13553,10 +15625,10 @@
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>9</v>
@@ -13567,10 +15639,10 @@
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>9</v>
@@ -13581,10 +15653,10 @@
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>9</v>
@@ -13593,10 +15665,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C36" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>9</v>
@@ -13604,10 +15676,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C37" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>9</v>
@@ -13615,10 +15687,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C38" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>9</v>
@@ -13673,17 +15745,17 @@
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>1640</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -14026,7 +16098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -14063,17 +16135,17 @@
     </row>
     <row r="2" spans="1:6" ht="34.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>1642</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -14086,10 +16158,10 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>54</v>
@@ -14105,7 +16177,7 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>55</v>
@@ -14121,7 +16193,7 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>56</v>
@@ -14137,7 +16209,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>57</v>
@@ -14153,7 +16225,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>58</v>
@@ -14169,7 +16241,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>59</v>
@@ -14185,7 +16257,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>60</v>
@@ -14201,7 +16273,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>61</v>
@@ -14217,7 +16289,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>62</v>
@@ -14240,10 +16312,10 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>52</v>
@@ -14266,10 +16338,10 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>63</v>
@@ -14285,10 +16357,10 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>53</v>
@@ -14301,10 +16373,10 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>53</v>
@@ -14339,13 +16411,13 @@
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>14</v>
@@ -14388,7 +16460,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="10" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>68</v>
@@ -14458,10 +16530,10 @@
       <c r="A29" s="34"/>
       <c r="B29" s="5"/>
       <c r="C29" s="35" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>9</v>
@@ -14472,10 +16544,10 @@
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="35" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>9</v>
@@ -14486,10 +16558,10 @@
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="35" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>9</v>
@@ -14500,10 +16572,10 @@
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="35" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>9</v>
@@ -14514,10 +16586,10 @@
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="35" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>9</v>
@@ -14528,10 +16600,10 @@
       <c r="A34" s="5"/>
       <c r="B34" s="34"/>
       <c r="C34" s="35" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>9</v>
@@ -14544,10 +16616,10 @@
       <c r="A35" s="5"/>
       <c r="B35" s="34"/>
       <c r="C35" s="35" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>9</v>
@@ -14563,10 +16635,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>71</v>
@@ -14576,51 +16648,51 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C38" s="6" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C39" s="6" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C40" s="6" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C41" s="6" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C42" s="6" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="C43" s="6" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -14629,7 +16701,7 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="C45" s="10" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>72</v>
@@ -14642,10 +16714,10 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>74</v>
@@ -14659,7 +16731,7 @@
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="10" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>75</v>
@@ -14673,7 +16745,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="10" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>76</v>
@@ -14687,7 +16759,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="10" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>77</v>
@@ -14701,7 +16773,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>78</v>
@@ -14715,7 +16787,7 @@
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>79</v>
@@ -14729,7 +16801,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="10" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>80</v>
@@ -14742,7 +16814,7 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="10" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>81</v>
@@ -14812,17 +16884,17 @@
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>1644</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -15011,17 +17083,17 @@
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1646</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -15391,7 +17463,7 @@
       <c r="E29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="65" t="s">
         <v>161</v>
       </c>
     </row>
@@ -15407,7 +17479,7 @@
       <c r="E30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="65"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
@@ -15421,7 +17493,7 @@
       <c r="E31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="65"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
@@ -15435,7 +17507,7 @@
       <c r="E32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="65"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
@@ -15449,7 +17521,7 @@
       <c r="E33" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="65"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
@@ -15463,7 +17535,7 @@
       <c r="E34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="63"/>
+      <c r="F34" s="65"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
@@ -15477,7 +17549,7 @@
       <c r="E35" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="65"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
@@ -15491,7 +17563,7 @@
       <c r="E36" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
@@ -15505,7 +17577,7 @@
       <c r="E37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="65"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
@@ -15519,7 +17591,7 @@
       <c r="E38" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="65"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
@@ -15533,7 +17605,7 @@
       <c r="E39" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="65"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
@@ -15547,7 +17619,7 @@
       <c r="E40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="65"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="17"/>
@@ -15561,7 +17633,7 @@
       <c r="E41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="65"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
@@ -15575,7 +17647,7 @@
       <c r="E42" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="65"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="17"/>
@@ -15589,7 +17661,7 @@
       <c r="E43" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="63"/>
+      <c r="F43" s="65"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
@@ -15603,7 +17675,7 @@
       <c r="E44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="63"/>
+      <c r="F44" s="65"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="17"/>
@@ -15617,7 +17689,7 @@
       <c r="E45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="65"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
@@ -15631,7 +17703,7 @@
       <c r="E46" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="63"/>
+      <c r="F46" s="65"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="17"/>
@@ -16163,7 +18235,7 @@
       <c r="E86" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="63" t="s">
+      <c r="F86" s="65" t="s">
         <v>267</v>
       </c>
     </row>
@@ -16179,7 +18251,7 @@
       <c r="E87" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="63"/>
+      <c r="F87" s="65"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="17"/>
@@ -16193,7 +18265,7 @@
       <c r="E88" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="63"/>
+      <c r="F88" s="65"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="17"/>
@@ -16207,7 +18279,7 @@
       <c r="E89" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="63"/>
+      <c r="F89" s="65"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="17"/>
@@ -16221,7 +18293,7 @@
       <c r="E90" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="63"/>
+      <c r="F90" s="65"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="17"/>
@@ -16235,7 +18307,7 @@
       <c r="E91" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="63"/>
+      <c r="F91" s="65"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="17"/>
@@ -16249,7 +18321,7 @@
       <c r="E92" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F92" s="63"/>
+      <c r="F92" s="65"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="17"/>
@@ -16263,7 +18335,7 @@
       <c r="E93" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="63"/>
+      <c r="F93" s="65"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="17"/>
@@ -16277,7 +18349,7 @@
       <c r="E94" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="63"/>
+      <c r="F94" s="65"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="17"/>
@@ -16291,7 +18363,7 @@
       <c r="E95" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="63"/>
+      <c r="F95" s="65"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="17"/>
@@ -16305,7 +18377,7 @@
       <c r="E96" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="63"/>
+      <c r="F96" s="65"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="17"/>
@@ -16319,7 +18391,7 @@
       <c r="E97" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="63"/>
+      <c r="F97" s="65"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="17"/>
@@ -16333,7 +18405,7 @@
       <c r="E98" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F98" s="63"/>
+      <c r="F98" s="65"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="17"/>
@@ -16347,7 +18419,7 @@
       <c r="E99" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="63"/>
+      <c r="F99" s="65"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="17"/>
@@ -16932,7 +19004,7 @@
       </c>
       <c r="F143" s="17"/>
     </row>
-    <row r="144" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="17"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17" t="s">
@@ -17017,17 +19089,17 @@
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>1648</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -17042,10 +19114,10 @@
       <c r="B4" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -17779,17 +19851,17 @@
     </row>
     <row r="2" spans="1:6" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1650</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -18422,17 +20494,17 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1652</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -20022,7 +22094,7 @@
     <row r="123" spans="1:6" ht="45.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>757</v>
@@ -20033,8 +22105,8 @@
       <c r="E123" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F123" s="63" t="s">
-        <v>1042</v>
+      <c r="F123" s="65" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -20049,7 +22121,7 @@
       <c r="E124" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F124" s="63"/>
+      <c r="F124" s="65"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="17"/>
@@ -20085,21 +22157,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-8880</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-8880</Url>
-      <Description>VMX3MACP777Z-432858100-8880</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -20108,57 +22165,22 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
+      <Description>VMX3MACP777Z-432858100-6680</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fe6dd6fbc47b2b2c3033f1a9c1079fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -20427,7 +22449,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -20445,23 +22525,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D26296-6F3A-450E-9A4D-26E32036C996}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20479,4 +22543,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -22171,10 +22171,10 @@
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-8880</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
-      <Description>VMX3MACP777Z-432858100-6680</Description>
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-8880</Url>
+      <Description>VMX3MACP777Z-432858100-8880</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>

--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/Shared Resources/Code/DHS-Indicators-Stata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33697\ICF\Analysis - Shared Resources\Code\DHS-Indicators-SPSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="114_{17F82F54-F8CB-43F8-AF09-BA1DBACED508}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C61CA9F1-39D0-4BEA-95B7-67463D459314}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085DC758-2C96-44C0-9427-A616B8FEA76D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" tabRatio="690" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25140" yWindow="1260" windowWidth="18525" windowHeight="11175" tabRatio="690" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
@@ -20441,7 +20441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -20451,7 +20451,7 @@
     <col min="2" max="2" width="19.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="82.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.54296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.453125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.90625" style="1"/>
   </cols>
@@ -22142,29 +22142,55 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-8880</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-8880</Url>
-      <Description>VMX3MACP777Z-432858100-8880</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fe6dd6fbc47b2b2c3033f1a9c1079fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22433,83 +22459,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-8880</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-8880</Url>
+      <Description>VMX3MACP777Z-432858100-8880</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
-    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D26296-6F3A-450E-9A4D-26E32036C996}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22529,10 +22511,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
+    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -22191,8 +22191,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fe6dd6fbc47b2b2c3033f1a9c1079fd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee862ef0fc8dbdbaa6c7a8968b7b48f1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd4fdd4f38f705a4fbfd7d3200bf1970" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -22492,23 +22492,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D26296-6F3A-450E-9A4D-26E32036C996}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
-    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFD3EA71-3941-4F72-96A6-70334FE45D3C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -22191,8 +22191,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee862ef0fc8dbdbaa6c7a8968b7b48f1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd4fdd4f38f705a4fbfd7d3200bf1970" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="534" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a765ce11b89b42bcade51542d07405">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f7cf592af29221d7e264e507c9f7a8c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -22220,6 +22220,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -22305,6 +22306,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -22492,7 +22498,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFD3EA71-3941-4F72-96A6-70334FE45D3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F42E4AE-8B91-41B6-9325-791E87049604}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -22146,10 +22146,10 @@
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-8880</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
-      <Description>VMX3MACP777Z-432858100-6680</Description>
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-8880</Url>
+      <Description>VMX3MACP777Z-432858100-8880</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>

--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -22151,16 +22151,21 @@
       <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-8880</Url>
       <Description>VMX3MACP777Z-432858100-8880</Description>
     </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="534" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a765ce11b89b42bcade51542d07405">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f7cf592af29221d7e264e507c9f7a8c" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="537" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32af978db1d8a110ec558ab40ef27856">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" xmlns:ns4="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490a248aacda82af6307d667c2e14f68" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <xsd:import namespace="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -22186,6 +22191,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -22278,6 +22285,13 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="30" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6856f2ee-118d-42e8-91de-064c9a66b685" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d16efad5-0601-4cf0-b7c2-89968258c777" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -22329,6 +22343,21 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="31" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9af71320-1412-4515-a0b2-dc1dac8ea18d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -22508,7 +22537,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5603B0-5D4C-49A9-9737-00F4EE32046A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6E440F8-EDC7-467B-9337-D7C3561D962F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
